--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_6_32.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_6_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2147574.873986959</v>
+        <v>2146962.311703905</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736561</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8996161.238326922</v>
+        <v>8996161.238326924</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>17.87560458171883</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="I2" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>7.865925798787496</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,73 +735,73 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>98.93847887876893</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>60.36402868517423</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>59.18642621600367</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>20.61197602240899</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>135.7293992974318</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.94182076836101</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>135.7293992974318</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>81.39848696833005</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="X4" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>29.81855126207275</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="F5" t="n">
-        <v>135.7293992974318</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
-        <v>135.7293992974318</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
-        <v>135.7293992974318</v>
+        <v>7.865925798787461</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>31.28269957069982</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>119.5504549011779</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
     </row>
     <row r="7">
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>119.5504549011778</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="W7" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="X7" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>347.8957002451465</v>
       </c>
       <c r="E8" t="n">
-        <v>347.8957002451466</v>
+        <v>347.8957002451465</v>
       </c>
       <c r="F8" t="n">
-        <v>347.8957002451466</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
         <v>11.94294668035388</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>19.39499684051631</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>347.8957002451466</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>76.64476938846916</v>
       </c>
     </row>
     <row r="9">
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>95.45722850494441</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.5961130869169</v>
+        <v>135.864838124299</v>
       </c>
     </row>
     <row r="10">
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>12.5966516732203</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>224.2416301284776</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>283.5831404124249</v>
+        <v>283.5831404124248</v>
       </c>
       <c r="C11" t="n">
         <v>271.5944573701066</v>
       </c>
       <c r="D11" t="n">
-        <v>262.5757614146346</v>
+        <v>262.5757614146345</v>
       </c>
       <c r="E11" t="n">
-        <v>45.82476447881598</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>303.4897150725172</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>305.0823873686065</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>219.4849732460949</v>
       </c>
       <c r="I11" t="n">
-        <v>51.43825117247547</v>
+        <v>18.08383619561442</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>71.07539964015264</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>114.1044358510483</v>
       </c>
       <c r="U11" t="n">
-        <v>145.7892715646252</v>
+        <v>145.7892715646251</v>
       </c>
       <c r="V11" t="n">
-        <v>227.089517652604</v>
+        <v>227.0895176526039</v>
       </c>
       <c r="W11" t="n">
         <v>252.3896171305609</v>
@@ -1436,7 +1436,7 @@
         <v>271.6898753633075</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>283.0864731595062</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>127.2589802644047</v>
       </c>
       <c r="H12" t="n">
-        <v>47.92856762175951</v>
+        <v>97.17847520762443</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42415327496663</v>
+        <v>12.17424568910303</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>47.87188853720191</v>
+        <v>47.87188853720188</v>
       </c>
       <c r="S12" t="n">
         <v>147.8865622593958</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>75.19985128712193</v>
+        <v>75.19985128712189</v>
       </c>
       <c r="C13" t="n">
-        <v>61.39984613252241</v>
+        <v>61.39984613252237</v>
       </c>
       <c r="D13" t="n">
-        <v>45.0212105301008</v>
+        <v>45.02121053010076</v>
       </c>
       <c r="E13" t="n">
-        <v>43.96896038588025</v>
+        <v>43.96896038588021</v>
       </c>
       <c r="F13" t="n">
-        <v>44.43588471406656</v>
+        <v>44.43588471406652</v>
       </c>
       <c r="G13" t="n">
-        <v>60.55780797407863</v>
+        <v>60.55780797407933</v>
       </c>
       <c r="H13" t="n">
-        <v>49.90060675641033</v>
+        <v>49.90060675641028</v>
       </c>
       <c r="I13" t="n">
-        <v>31.64655516930904</v>
+        <v>31.64655516930897</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.63707971801716</v>
+        <v>34.63707971801712</v>
       </c>
       <c r="S13" t="n">
         <v>102.3901719201107</v>
@@ -1582,7 +1582,7 @@
         <v>123.6744149709019</v>
       </c>
       <c r="U13" t="n">
-        <v>177.7900399802133</v>
+        <v>177.7900399802132</v>
       </c>
       <c r="V13" t="n">
         <v>151.6079876867475</v>
@@ -1594,7 +1594,7 @@
         <v>122.4199757531639</v>
       </c>
       <c r="Y13" t="n">
-        <v>113.2948435092316</v>
+        <v>113.2948435092315</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>283.5831404124249</v>
+        <v>283.5831404124248</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>262.5757614146346</v>
+        <v>262.5757614146345</v>
       </c>
       <c r="E14" t="n">
-        <v>284.3178989845401</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>303.4897150725172</v>
       </c>
       <c r="G14" t="n">
-        <v>305.0823873686065</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>34.08930254901338</v>
+        <v>219.484973246095</v>
       </c>
       <c r="I14" t="n">
-        <v>51.43825117247547</v>
+        <v>51.43825117247545</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>71.07539964015268</v>
       </c>
       <c r="T14" t="n">
         <v>114.1044358510483</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>145.7892715646251</v>
       </c>
       <c r="V14" t="n">
-        <v>227.089517652604</v>
+        <v>227.0895176526039</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>252.3896171305609</v>
       </c>
       <c r="X14" t="n">
-        <v>271.6898753633075</v>
+        <v>206.4402026840359</v>
       </c>
       <c r="Y14" t="n">
         <v>283.0864731595062</v>
@@ -1701,10 +1701,10 @@
         <v>127.2589802644047</v>
       </c>
       <c r="H15" t="n">
-        <v>47.92856762175905</v>
+        <v>97.17847520762444</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42415327496663</v>
+        <v>12.17424568910258</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>75.19985128712193</v>
+        <v>75.1998512871219</v>
       </c>
       <c r="C16" t="n">
-        <v>61.39984613252241</v>
+        <v>61.39984613252238</v>
       </c>
       <c r="D16" t="n">
-        <v>45.0212105301008</v>
+        <v>45.02121053010077</v>
       </c>
       <c r="E16" t="n">
-        <v>43.96896038588025</v>
+        <v>43.96896038588022</v>
       </c>
       <c r="F16" t="n">
-        <v>44.43588471406656</v>
+        <v>44.43588471406653</v>
       </c>
       <c r="G16" t="n">
-        <v>60.55780797407861</v>
+        <v>60.5578079740786</v>
       </c>
       <c r="H16" t="n">
-        <v>49.90060675641033</v>
+        <v>49.9006067564103</v>
       </c>
       <c r="I16" t="n">
-        <v>31.64655516930903</v>
+        <v>31.646555169309</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.63707971801717</v>
+        <v>34.63707971801714</v>
       </c>
       <c r="S16" t="n">
         <v>102.3901719201107</v>
@@ -1819,7 +1819,7 @@
         <v>123.6744149709019</v>
       </c>
       <c r="U16" t="n">
-        <v>177.7900399802133</v>
+        <v>177.7900399802132</v>
       </c>
       <c r="V16" t="n">
         <v>151.6079876867475</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>221.0969857531354</v>
+        <v>221.0969857531356</v>
       </c>
       <c r="C17" t="n">
-        <v>209.1083027108172</v>
+        <v>209.1083027108173</v>
       </c>
       <c r="D17" t="n">
-        <v>200.0896067553451</v>
+        <v>200.0896067553453</v>
       </c>
       <c r="E17" t="n">
-        <v>221.8317443252507</v>
+        <v>221.8317443252508</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0035604132278</v>
+        <v>241.003560413228</v>
       </c>
       <c r="G17" t="n">
-        <v>242.596232709317</v>
+        <v>242.5962327093172</v>
       </c>
       <c r="H17" t="n">
-        <v>156.9988185868056</v>
+        <v>156.9988185868057</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>8.589244980863274</v>
+        <v>8.589244980863445</v>
       </c>
       <c r="T17" t="n">
-        <v>51.61828119175885</v>
+        <v>51.61828119175902</v>
       </c>
       <c r="U17" t="n">
-        <v>83.30311690533571</v>
+        <v>83.30311690533588</v>
       </c>
       <c r="V17" t="n">
-        <v>164.6033629933145</v>
+        <v>164.6033629933147</v>
       </c>
       <c r="W17" t="n">
-        <v>189.9034624712714</v>
+        <v>189.9034624712716</v>
       </c>
       <c r="X17" t="n">
-        <v>209.2037207040181</v>
+        <v>209.2037207040182</v>
       </c>
       <c r="Y17" t="n">
-        <v>220.6003185002168</v>
+        <v>220.600318500217</v>
       </c>
     </row>
     <row r="18">
@@ -1932,7 +1932,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>84.09695248376123</v>
       </c>
       <c r="G18" t="n">
         <v>127.2589802644047</v>
@@ -1941,7 +1941,7 @@
         <v>97.17847520762444</v>
       </c>
       <c r="I18" t="n">
-        <v>60.04613422630321</v>
+        <v>61.42415327496663</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>47.8718885372019</v>
       </c>
       <c r="S18" t="n">
         <v>147.8865622593958</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>12.71369662783249</v>
+        <v>12.71369662783266</v>
       </c>
       <c r="C19" t="n">
-        <v>108.7965096791348</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>39.90401726082131</v>
+        <v>39.90401726082148</v>
       </c>
       <c r="T19" t="n">
-        <v>61.18826031161245</v>
+        <v>61.18826031161262</v>
       </c>
       <c r="U19" t="n">
-        <v>115.3038853209238</v>
+        <v>224.1003950000573</v>
       </c>
       <c r="V19" t="n">
-        <v>89.12183302745808</v>
+        <v>89.12183302745825</v>
       </c>
       <c r="W19" t="n">
-        <v>114.2887190980713</v>
+        <v>114.2887190980715</v>
       </c>
       <c r="X19" t="n">
-        <v>59.93382109387446</v>
+        <v>59.93382109387463</v>
       </c>
       <c r="Y19" t="n">
-        <v>50.80868884994214</v>
+        <v>50.80868884994231</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>221.0969857531354</v>
+        <v>221.0969857531356</v>
       </c>
       <c r="C20" t="n">
-        <v>209.1083027108172</v>
+        <v>209.1083027108173</v>
       </c>
       <c r="D20" t="n">
-        <v>200.0896067553451</v>
+        <v>200.0896067553453</v>
       </c>
       <c r="E20" t="n">
-        <v>221.8317443252507</v>
+        <v>221.8317443252521</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0035604132278</v>
+        <v>241.003560413228</v>
       </c>
       <c r="G20" t="n">
-        <v>242.596232709317</v>
+        <v>242.5962327093172</v>
       </c>
       <c r="H20" t="n">
-        <v>156.9988185868056</v>
+        <v>156.9988185868057</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>8.589244980864191</v>
+        <v>8.589244980863445</v>
       </c>
       <c r="T20" t="n">
-        <v>51.61828119175885</v>
+        <v>51.61828119175902</v>
       </c>
       <c r="U20" t="n">
-        <v>83.30311690533571</v>
+        <v>83.30311690533588</v>
       </c>
       <c r="V20" t="n">
-        <v>164.6033629933145</v>
+        <v>164.6033629933147</v>
       </c>
       <c r="W20" t="n">
-        <v>189.9034624712714</v>
+        <v>189.9034624712716</v>
       </c>
       <c r="X20" t="n">
-        <v>209.2037207040181</v>
+        <v>209.2037207040182</v>
       </c>
       <c r="Y20" t="n">
-        <v>220.6003185002168</v>
+        <v>220.600318500217</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>97.17847520762444</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42415327496663</v>
+        <v>12.17424568910346</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>47.8718885372019</v>
       </c>
       <c r="S21" t="n">
-        <v>146.5085432107336</v>
+        <v>147.8865622593958</v>
       </c>
       <c r="T21" t="n">
         <v>186.0637190201153</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>12.71369662783249</v>
+        <v>12.71369662783266</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>108.7965096791334</v>
       </c>
       <c r="S22" t="n">
-        <v>39.90401726082131</v>
+        <v>39.90401726082148</v>
       </c>
       <c r="T22" t="n">
-        <v>61.18826031161245</v>
+        <v>61.18826031161262</v>
       </c>
       <c r="U22" t="n">
-        <v>115.3038853209238</v>
+        <v>115.303885320924</v>
       </c>
       <c r="V22" t="n">
-        <v>89.12183302745808</v>
+        <v>89.12183302745825</v>
       </c>
       <c r="W22" t="n">
-        <v>114.2887190980713</v>
+        <v>114.2887190980715</v>
       </c>
       <c r="X22" t="n">
-        <v>59.93382109387446</v>
+        <v>59.93382109387463</v>
       </c>
       <c r="Y22" t="n">
-        <v>159.605198529077</v>
+        <v>50.80868884994231</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>221.0969857531354</v>
+        <v>221.0969857531356</v>
       </c>
       <c r="C23" t="n">
-        <v>209.1083027108172</v>
+        <v>209.1083027108173</v>
       </c>
       <c r="D23" t="n">
-        <v>200.0896067553451</v>
+        <v>200.0896067553453</v>
       </c>
       <c r="E23" t="n">
-        <v>221.8317443252507</v>
+        <v>221.8317443252508</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0035604132278</v>
+        <v>241.003560413228</v>
       </c>
       <c r="G23" t="n">
-        <v>242.5962327093171</v>
+        <v>242.5962327093172</v>
       </c>
       <c r="H23" t="n">
-        <v>156.9988185868056</v>
+        <v>156.9988185868057</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>8.58924498086327</v>
+        <v>8.589244980863441</v>
       </c>
       <c r="T23" t="n">
-        <v>51.61828119175885</v>
+        <v>51.61828119175902</v>
       </c>
       <c r="U23" t="n">
-        <v>83.30311690533571</v>
+        <v>83.30311690533588</v>
       </c>
       <c r="V23" t="n">
-        <v>164.6033629933145</v>
+        <v>164.6033629933147</v>
       </c>
       <c r="W23" t="n">
-        <v>189.9034624712714</v>
+        <v>189.9034624712716</v>
       </c>
       <c r="X23" t="n">
-        <v>209.2037207040181</v>
+        <v>209.2037207040182</v>
       </c>
       <c r="Y23" t="n">
-        <v>220.6003185002168</v>
+        <v>220.600318500217</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>97.17847520762444</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42415327496663</v>
+        <v>12.17424568910346</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>147.8865622593958</v>
       </c>
       <c r="T24" t="n">
-        <v>136.8138114342479</v>
+        <v>186.0637190201153</v>
       </c>
       <c r="U24" t="n">
         <v>216.2978553518477</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>12.71369662783249</v>
+        <v>12.71369662783266</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>108.7965096791334</v>
       </c>
       <c r="S25" t="n">
-        <v>148.7005269399561</v>
+        <v>39.90401726082148</v>
       </c>
       <c r="T25" t="n">
-        <v>61.18826031161245</v>
+        <v>61.18826031161262</v>
       </c>
       <c r="U25" t="n">
-        <v>115.3038853209238</v>
+        <v>115.303885320924</v>
       </c>
       <c r="V25" t="n">
-        <v>89.12183302745808</v>
+        <v>89.12183302745825</v>
       </c>
       <c r="W25" t="n">
-        <v>114.2887190980713</v>
+        <v>114.2887190980715</v>
       </c>
       <c r="X25" t="n">
-        <v>59.93382109387446</v>
+        <v>59.93382109387463</v>
       </c>
       <c r="Y25" t="n">
-        <v>50.80868884994214</v>
+        <v>50.80868884994231</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>284.3178989845401</v>
       </c>
       <c r="F26" t="n">
-        <v>303.4897150725172</v>
+        <v>249.8701869737475</v>
       </c>
       <c r="G26" t="n">
         <v>305.0823873686065</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>17.4558715413835</v>
+        <v>71.0753996401527</v>
       </c>
       <c r="T26" t="n">
         <v>114.1044358510483</v>
@@ -2731,7 +2731,7 @@
         <v>49.90060675641033</v>
       </c>
       <c r="I28" t="n">
-        <v>31.64655516930903</v>
+        <v>31.64655516930902</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>123.6744149709019</v>
       </c>
       <c r="U28" t="n">
-        <v>177.7900399802133</v>
+        <v>177.7900399802132</v>
       </c>
       <c r="V28" t="n">
         <v>151.6079876867475</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>229.9636123136552</v>
+        <v>283.5831404124249</v>
       </c>
       <c r="C29" t="n">
         <v>271.5944573701066</v>
@@ -2801,7 +2801,7 @@
         <v>284.3178989845401</v>
       </c>
       <c r="F29" t="n">
-        <v>303.4897150725173</v>
+        <v>249.870186973748</v>
       </c>
       <c r="G29" t="n">
         <v>305.0823873686065</v>
@@ -2810,7 +2810,7 @@
         <v>219.484973246095</v>
       </c>
       <c r="I29" t="n">
-        <v>51.4382511724755</v>
+        <v>51.43825117247547</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>71.07539964015274</v>
+        <v>71.07539964015271</v>
       </c>
       <c r="T29" t="n">
         <v>114.1044358510483</v>
@@ -2858,7 +2858,7 @@
         <v>271.6898753633075</v>
       </c>
       <c r="Y29" t="n">
-        <v>283.0864731595063</v>
+        <v>283.0864731595062</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>75.19985128712196</v>
+        <v>75.19985128712193</v>
       </c>
       <c r="C31" t="n">
-        <v>61.39984613252244</v>
+        <v>61.39984613252241</v>
       </c>
       <c r="D31" t="n">
-        <v>45.02121053010083</v>
+        <v>45.0212105301008</v>
       </c>
       <c r="E31" t="n">
-        <v>43.96896038588028</v>
+        <v>43.96896038588025</v>
       </c>
       <c r="F31" t="n">
-        <v>44.43588471406659</v>
+        <v>44.43588471406656</v>
       </c>
       <c r="G31" t="n">
-        <v>60.55780797407864</v>
+        <v>60.55780797407861</v>
       </c>
       <c r="H31" t="n">
-        <v>49.90060675641035</v>
+        <v>49.90060675641033</v>
       </c>
       <c r="I31" t="n">
-        <v>31.64655516930906</v>
+        <v>31.64655516930903</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.6370797180172</v>
+        <v>34.63707971801717</v>
       </c>
       <c r="S31" t="n">
-        <v>102.3901719201108</v>
+        <v>102.3901719201107</v>
       </c>
       <c r="T31" t="n">
         <v>123.6744149709019</v>
       </c>
       <c r="U31" t="n">
-        <v>177.7900399802133</v>
+        <v>177.7900399802132</v>
       </c>
       <c r="V31" t="n">
         <v>151.6079876867475</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>224.614836294983</v>
+        <v>224.6148362949831</v>
       </c>
       <c r="C32" t="n">
-        <v>212.6261532526648</v>
+        <v>212.6261532526649</v>
       </c>
       <c r="D32" t="n">
         <v>203.6074572971928</v>
       </c>
       <c r="E32" t="n">
-        <v>225.3495948670983</v>
+        <v>225.3495948670984</v>
       </c>
       <c r="F32" t="n">
         <v>244.5214109550755</v>
       </c>
       <c r="G32" t="n">
-        <v>246.1140832511647</v>
+        <v>246.1140832511648</v>
       </c>
       <c r="H32" t="n">
-        <v>160.5166691286532</v>
+        <v>160.5166691286533</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>12.10709552271089</v>
+        <v>12.10709552271098</v>
       </c>
       <c r="T32" t="n">
-        <v>55.13613173360648</v>
+        <v>55.13613173360656</v>
       </c>
       <c r="U32" t="n">
-        <v>86.82096744718334</v>
+        <v>86.82096744718342</v>
       </c>
       <c r="V32" t="n">
         <v>168.1212135351622</v>
@@ -3092,10 +3092,10 @@
         <v>193.4213130131191</v>
       </c>
       <c r="X32" t="n">
-        <v>212.7215712458657</v>
+        <v>212.7215712458658</v>
       </c>
       <c r="Y32" t="n">
-        <v>224.1181690420644</v>
+        <v>224.1181690420645</v>
       </c>
     </row>
     <row r="33">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23154716968011</v>
+        <v>16.2315471696802</v>
       </c>
       <c r="C34" t="n">
-        <v>2.431542015080595</v>
+        <v>2.43154201508068</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.589503856636797</v>
+        <v>1.589503856636883</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3229,31 +3229,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>25.35877140226712</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>51.27388807036838</v>
       </c>
       <c r="S34" t="n">
-        <v>120.0545272753054</v>
+        <v>43.42186780266901</v>
       </c>
       <c r="T34" t="n">
-        <v>64.70611085346006</v>
+        <v>64.70611085346015</v>
       </c>
       <c r="U34" t="n">
-        <v>118.8217358627714</v>
+        <v>118.8217358627715</v>
       </c>
       <c r="V34" t="n">
-        <v>92.6396835693057</v>
+        <v>92.63968356930579</v>
       </c>
       <c r="W34" t="n">
         <v>117.806569639919</v>
       </c>
       <c r="X34" t="n">
-        <v>63.45167163572208</v>
+        <v>63.45167163572216</v>
       </c>
       <c r="Y34" t="n">
-        <v>54.32653939178977</v>
+        <v>54.32653939178985</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3266,22 @@
         <v>224.6148362949831</v>
       </c>
       <c r="C35" t="n">
-        <v>212.6261532526649</v>
+        <v>212.6261532526648</v>
       </c>
       <c r="D35" t="n">
         <v>203.6074572971928</v>
       </c>
       <c r="E35" t="n">
-        <v>225.3495948670984</v>
+        <v>225.3495948670983</v>
       </c>
       <c r="F35" t="n">
         <v>244.5214109550755</v>
       </c>
       <c r="G35" t="n">
-        <v>246.1140832511648</v>
+        <v>246.1140832511647</v>
       </c>
       <c r="H35" t="n">
-        <v>160.5166691286533</v>
+        <v>160.5166691286532</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>12.10709552271098</v>
+        <v>12.10709552271095</v>
       </c>
       <c r="T35" t="n">
-        <v>55.13613173360656</v>
+        <v>55.13613173360653</v>
       </c>
       <c r="U35" t="n">
-        <v>86.82096744718342</v>
+        <v>86.82096744718339</v>
       </c>
       <c r="V35" t="n">
         <v>168.1212135351622</v>
@@ -3329,7 +3329,7 @@
         <v>193.4213130131191</v>
       </c>
       <c r="X35" t="n">
-        <v>212.7215712458658</v>
+        <v>212.7215712458657</v>
       </c>
       <c r="Y35" t="n">
         <v>224.1181690420645</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.2315471696802</v>
+        <v>16.23154716968017</v>
       </c>
       <c r="C37" t="n">
-        <v>2.43154201508068</v>
+        <v>2.431542015080652</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.589503856636883</v>
+        <v>1.589503856636854</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>120.0545272753046</v>
+        <v>43.42186780266898</v>
       </c>
       <c r="T37" t="n">
-        <v>64.70611085346015</v>
+        <v>64.70611085346012</v>
       </c>
       <c r="U37" t="n">
         <v>118.8217358627715</v>
       </c>
       <c r="V37" t="n">
-        <v>92.63968356930579</v>
+        <v>92.63968356930576</v>
       </c>
       <c r="W37" t="n">
         <v>117.806569639919</v>
       </c>
       <c r="X37" t="n">
-        <v>63.45167163572216</v>
+        <v>63.45167163572214</v>
       </c>
       <c r="Y37" t="n">
-        <v>54.32653939178985</v>
+        <v>130.9591988644258</v>
       </c>
     </row>
     <row r="38">
@@ -3503,22 +3503,22 @@
         <v>224.6148362949831</v>
       </c>
       <c r="C38" t="n">
-        <v>212.6261532526649</v>
+        <v>212.6261532526648</v>
       </c>
       <c r="D38" t="n">
         <v>203.6074572971928</v>
       </c>
       <c r="E38" t="n">
-        <v>225.3495948670984</v>
+        <v>225.3495948670983</v>
       </c>
       <c r="F38" t="n">
         <v>244.5214109550755</v>
       </c>
       <c r="G38" t="n">
-        <v>246.1140832511648</v>
+        <v>246.1140832511647</v>
       </c>
       <c r="H38" t="n">
-        <v>160.5166691286533</v>
+        <v>160.5166691286532</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>12.10709552271098</v>
+        <v>12.10709552271095</v>
       </c>
       <c r="T38" t="n">
-        <v>55.13613173360656</v>
+        <v>55.13613173360653</v>
       </c>
       <c r="U38" t="n">
-        <v>86.82096744718342</v>
+        <v>86.82096744718339</v>
       </c>
       <c r="V38" t="n">
         <v>168.1212135351622</v>
@@ -3566,7 +3566,7 @@
         <v>193.4213130131191</v>
       </c>
       <c r="X38" t="n">
-        <v>212.7215712458658</v>
+        <v>212.7215712458657</v>
       </c>
       <c r="Y38" t="n">
         <v>224.1181690420645</v>
@@ -3594,7 +3594,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>127.2589802644057</v>
+        <v>127.2589802644047</v>
       </c>
       <c r="H39" t="n">
         <v>97.17847520762444</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.2315471696802</v>
+        <v>16.23154716968017</v>
       </c>
       <c r="C40" t="n">
-        <v>2.43154201508068</v>
+        <v>2.431542015080652</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.589503856636883</v>
+        <v>1.589503856636854</v>
       </c>
       <c r="H40" t="n">
-        <v>76.63265947263559</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>25.35877140226712</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>43.42186780266901</v>
+        <v>43.42186780266898</v>
       </c>
       <c r="T40" t="n">
-        <v>64.70611085346015</v>
+        <v>115.9799989238289</v>
       </c>
       <c r="U40" t="n">
         <v>118.8217358627715</v>
       </c>
       <c r="V40" t="n">
-        <v>92.63968356930579</v>
+        <v>92.63968356930576</v>
       </c>
       <c r="W40" t="n">
         <v>117.806569639919</v>
       </c>
       <c r="X40" t="n">
-        <v>63.45167163572216</v>
+        <v>63.45167163572214</v>
       </c>
       <c r="Y40" t="n">
-        <v>54.32653939178985</v>
+        <v>54.32653939178982</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>244.347355630701</v>
+        <v>244.3473556307013</v>
       </c>
       <c r="C41" t="n">
-        <v>232.3586725883827</v>
+        <v>232.3586725883831</v>
       </c>
       <c r="D41" t="n">
-        <v>223.3399766329107</v>
+        <v>127.3338943972271</v>
       </c>
       <c r="E41" t="n">
-        <v>245.0821142028162</v>
+        <v>245.0821142028166</v>
       </c>
       <c r="F41" t="n">
-        <v>163.6499260708712</v>
+        <v>264.2539302907937</v>
       </c>
       <c r="G41" t="n">
-        <v>265.8466025868826</v>
+        <v>265.846602586883</v>
       </c>
       <c r="H41" t="n">
-        <v>180.2491884643711</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>12.2024663907516</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.83961485842883</v>
+        <v>31.8396148584292</v>
       </c>
       <c r="T41" t="n">
-        <v>74.86865106932441</v>
+        <v>74.86865106932478</v>
       </c>
       <c r="U41" t="n">
-        <v>106.5534867829013</v>
+        <v>106.5534867829016</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>187.8537328708805</v>
       </c>
       <c r="W41" t="n">
-        <v>213.153832348837</v>
+        <v>213.1538323488374</v>
       </c>
       <c r="X41" t="n">
-        <v>232.4540905815836</v>
+        <v>232.454090581584</v>
       </c>
       <c r="Y41" t="n">
-        <v>243.8506883777824</v>
+        <v>243.8506883777827</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>97.17847520762444</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42415327496663</v>
+        <v>61.42415327496768</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.96406650539805</v>
+        <v>35.96406650539842</v>
       </c>
       <c r="C43" t="n">
-        <v>22.16406135079853</v>
+        <v>22.1640613507989</v>
       </c>
       <c r="D43" t="n">
-        <v>5.785425748376923</v>
+        <v>5.785425748377293</v>
       </c>
       <c r="E43" t="n">
-        <v>4.733175604156372</v>
+        <v>4.733175604156742</v>
       </c>
       <c r="F43" t="n">
-        <v>5.200099932342681</v>
+        <v>5.200099932343051</v>
       </c>
       <c r="G43" t="n">
-        <v>21.32202319235473</v>
+        <v>21.3220231923551</v>
       </c>
       <c r="H43" t="n">
-        <v>10.66482197468645</v>
+        <v>10.66482197468681</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>63.15438713838687</v>
+        <v>63.15438713838724</v>
       </c>
       <c r="T43" t="n">
-        <v>84.438630189178</v>
+        <v>84.43863018917837</v>
       </c>
       <c r="U43" t="n">
-        <v>138.5542551984894</v>
+        <v>138.5542551984897</v>
       </c>
       <c r="V43" t="n">
-        <v>112.3722029050236</v>
+        <v>112.372202905024</v>
       </c>
       <c r="W43" t="n">
-        <v>137.5390889756369</v>
+        <v>137.5390889756373</v>
       </c>
       <c r="X43" t="n">
-        <v>83.18419097144002</v>
+        <v>83.18419097144039</v>
       </c>
       <c r="Y43" t="n">
-        <v>74.0590587275077</v>
+        <v>74.05905872750807</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>244.347355630701</v>
+        <v>244.3473556307013</v>
       </c>
       <c r="C44" t="n">
-        <v>232.3586725883827</v>
+        <v>232.3586725883831</v>
       </c>
       <c r="D44" t="n">
-        <v>223.3399766329107</v>
+        <v>223.3399766329111</v>
       </c>
       <c r="E44" t="n">
-        <v>245.0821142028162</v>
+        <v>245.0821142028166</v>
       </c>
       <c r="F44" t="n">
-        <v>264.2539302907934</v>
+        <v>264.2539302907937</v>
       </c>
       <c r="G44" t="n">
-        <v>265.8466025868826</v>
+        <v>157.6380539604472</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>10.54740454722039</v>
+        <v>12.20246639075197</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.83961485842883</v>
+        <v>31.8396148584292</v>
       </c>
       <c r="T44" t="n">
-        <v>74.86865106932441</v>
+        <v>74.86865106932478</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>106.5534867829016</v>
       </c>
       <c r="V44" t="n">
-        <v>187.8537328708801</v>
+        <v>187.8537328708805</v>
       </c>
       <c r="W44" t="n">
-        <v>213.153832348837</v>
+        <v>213.1538323488374</v>
       </c>
       <c r="X44" t="n">
-        <v>232.4540905815836</v>
+        <v>232.454090581584</v>
       </c>
       <c r="Y44" t="n">
-        <v>243.8506883777824</v>
+        <v>243.8506883777827</v>
       </c>
     </row>
     <row r="45">
@@ -4071,7 +4071,7 @@
         <v>127.2589802644047</v>
       </c>
       <c r="H45" t="n">
-        <v>97.17847520762444</v>
+        <v>97.1784752076255</v>
       </c>
       <c r="I45" t="n">
         <v>61.42415327496663</v>
@@ -4107,7 +4107,7 @@
         <v>147.8865622593958</v>
       </c>
       <c r="T45" t="n">
-        <v>186.0637190201142</v>
+        <v>186.0637190201153</v>
       </c>
       <c r="U45" t="n">
         <v>216.2978553518477</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.96406650539805</v>
+        <v>35.96406650539842</v>
       </c>
       <c r="C46" t="n">
-        <v>22.16406135079853</v>
+        <v>22.1640613507989</v>
       </c>
       <c r="D46" t="n">
-        <v>5.785425748376923</v>
+        <v>5.785425748377293</v>
       </c>
       <c r="E46" t="n">
-        <v>4.733175604156372</v>
+        <v>4.733175604156742</v>
       </c>
       <c r="F46" t="n">
-        <v>5.200099932342681</v>
+        <v>5.200099932343051</v>
       </c>
       <c r="G46" t="n">
-        <v>21.32202319235473</v>
+        <v>21.3220231923551</v>
       </c>
       <c r="H46" t="n">
-        <v>10.66482197468645</v>
+        <v>10.66482197468681</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>63.15438713838687</v>
+        <v>63.15438713838724</v>
       </c>
       <c r="T46" t="n">
-        <v>84.438630189178</v>
+        <v>84.43863018917837</v>
       </c>
       <c r="U46" t="n">
-        <v>138.5542551984894</v>
+        <v>138.5542551984897</v>
       </c>
       <c r="V46" t="n">
-        <v>112.3722029050236</v>
+        <v>112.372202905024</v>
       </c>
       <c r="W46" t="n">
-        <v>137.5390889756369</v>
+        <v>137.5390889756373</v>
       </c>
       <c r="X46" t="n">
-        <v>83.18419097144002</v>
+        <v>83.18419097144039</v>
       </c>
       <c r="Y46" t="n">
-        <v>74.0590587275077</v>
+        <v>74.05905872750807</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>315.1789073548413</v>
+        <v>170.1331244293673</v>
       </c>
       <c r="C2" t="n">
-        <v>315.1789073548413</v>
+        <v>170.1331244293673</v>
       </c>
       <c r="D2" t="n">
-        <v>178.0785040241021</v>
+        <v>170.1331244293673</v>
       </c>
       <c r="E2" t="n">
-        <v>178.0785040241021</v>
+        <v>170.1331244293673</v>
       </c>
       <c r="F2" t="n">
         <v>160.0223377799417</v>
@@ -4322,31 +4322,31 @@
         <v>147.9587552745337</v>
       </c>
       <c r="H2" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I2" t="n">
         <v>10.85835194379454</v>
       </c>
       <c r="J2" t="n">
-        <v>10.85835194379454</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="K2" t="n">
-        <v>45.36902758981768</v>
+        <v>217.2290015210577</v>
       </c>
       <c r="L2" t="n">
-        <v>45.36902758981768</v>
+        <v>351.6011068255151</v>
       </c>
       <c r="M2" t="n">
-        <v>45.36902758981768</v>
+        <v>485.9732121299726</v>
       </c>
       <c r="N2" t="n">
-        <v>179.7411328942751</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="O2" t="n">
-        <v>314.1132381987326</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="P2" t="n">
-        <v>448.4853435031901</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q2" t="n">
         <v>542.9175971897271</v>
@@ -4355,25 +4355,25 @@
         <v>452.2793106855804</v>
       </c>
       <c r="S2" t="n">
-        <v>452.2793106855804</v>
+        <v>444.3339310908456</v>
       </c>
       <c r="T2" t="n">
-        <v>452.2793106855804</v>
+        <v>307.2335277601064</v>
       </c>
       <c r="U2" t="n">
-        <v>452.2793106855804</v>
+        <v>170.1331244293673</v>
       </c>
       <c r="V2" t="n">
-        <v>452.2793106855804</v>
+        <v>170.1331244293673</v>
       </c>
       <c r="W2" t="n">
-        <v>315.1789073548413</v>
+        <v>170.1331244293673</v>
       </c>
       <c r="X2" t="n">
-        <v>315.1789073548413</v>
+        <v>170.1331244293673</v>
       </c>
       <c r="Y2" t="n">
-        <v>315.1789073548413</v>
+        <v>170.1331244293673</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>71.83211829245539</v>
+        <v>110.7962093970965</v>
       </c>
       <c r="C3" t="n">
-        <v>71.83211829245539</v>
+        <v>110.7962093970965</v>
       </c>
       <c r="D3" t="n">
-        <v>10.85835194379454</v>
+        <v>110.7962093970965</v>
       </c>
       <c r="E3" t="n">
-        <v>10.85835194379454</v>
+        <v>110.7962093970965</v>
       </c>
       <c r="F3" t="n">
-        <v>10.85835194379454</v>
+        <v>110.7962093970965</v>
       </c>
       <c r="G3" t="n">
-        <v>10.85835194379454</v>
+        <v>110.7962093970965</v>
       </c>
       <c r="H3" t="n">
         <v>10.85835194379454</v>
@@ -4413,46 +4413,46 @@
         <v>145.230457248252</v>
       </c>
       <c r="L3" t="n">
-        <v>279.6025625527094</v>
+        <v>145.230457248252</v>
       </c>
       <c r="M3" t="n">
-        <v>279.6025625527094</v>
+        <v>145.230457248252</v>
       </c>
       <c r="N3" t="n">
-        <v>279.6025625527094</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="O3" t="n">
-        <v>279.6025625527094</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="P3" t="n">
-        <v>413.9746678571669</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="Q3" t="n">
         <v>542.9175971897271</v>
       </c>
       <c r="R3" t="n">
-        <v>483.1333282846729</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S3" t="n">
-        <v>483.1333282846729</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="T3" t="n">
-        <v>483.1333282846729</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="U3" t="n">
-        <v>483.1333282846729</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="V3" t="n">
-        <v>483.1333282846729</v>
+        <v>247.8966127278357</v>
       </c>
       <c r="W3" t="n">
-        <v>483.1333282846729</v>
+        <v>247.8966127278357</v>
       </c>
       <c r="X3" t="n">
-        <v>346.0329249539337</v>
+        <v>247.8966127278357</v>
       </c>
       <c r="Y3" t="n">
-        <v>208.9325216231946</v>
+        <v>110.7962093970965</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>208.015993860361</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C4" t="n">
-        <v>208.015993860361</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D4" t="n">
-        <v>208.015993860361</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E4" t="n">
-        <v>208.015993860361</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F4" t="n">
-        <v>70.91559052962182</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G4" t="n">
-        <v>70.91559052962182</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H4" t="n">
-        <v>70.91559052962182</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I4" t="n">
-        <v>70.91559052962182</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J4" t="n">
         <v>10.85835194379454</v>
@@ -4498,10 +4498,10 @@
         <v>263.0631252162992</v>
       </c>
       <c r="N4" t="n">
-        <v>381.4854669658995</v>
+        <v>381.4854669658996</v>
       </c>
       <c r="O4" t="n">
-        <v>479.9491134615892</v>
+        <v>479.9491134615893</v>
       </c>
       <c r="P4" t="n">
         <v>542.9175971897271</v>
@@ -4513,25 +4513,25 @@
         <v>367.2798525126769</v>
       </c>
       <c r="S4" t="n">
-        <v>367.2798525126769</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="T4" t="n">
-        <v>367.2798525126769</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="U4" t="n">
-        <v>367.2798525126769</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="V4" t="n">
-        <v>367.2798525126769</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="W4" t="n">
-        <v>367.2798525126769</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="X4" t="n">
-        <v>230.1794491819378</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y4" t="n">
-        <v>230.1794491819378</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>452.2793106855804</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="C5" t="n">
-        <v>422.159561936012</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="D5" t="n">
-        <v>422.159561936012</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="E5" t="n">
-        <v>422.159561936012</v>
+        <v>40.97810069336293</v>
       </c>
       <c r="F5" t="n">
-        <v>285.0591586052728</v>
+        <v>30.86731404393732</v>
       </c>
       <c r="G5" t="n">
-        <v>147.9587552745337</v>
+        <v>18.80373153852935</v>
       </c>
       <c r="H5" t="n">
         <v>10.85835194379454</v>
@@ -4568,22 +4568,22 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K5" t="n">
-        <v>145.230457248252</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="L5" t="n">
-        <v>179.7411328942751</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="M5" t="n">
-        <v>314.1132381987326</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="N5" t="n">
-        <v>448.4853435031901</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="O5" t="n">
-        <v>448.4853435031901</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="P5" t="n">
-        <v>448.4853435031901</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q5" t="n">
         <v>542.9175971897271</v>
@@ -4601,16 +4601,16 @@
         <v>452.2793106855804</v>
       </c>
       <c r="V5" t="n">
-        <v>452.2793106855804</v>
+        <v>315.1789073548413</v>
       </c>
       <c r="W5" t="n">
-        <v>452.2793106855804</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="X5" t="n">
-        <v>452.2793106855804</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="Y5" t="n">
-        <v>452.2793106855804</v>
+        <v>178.0785040241021</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>405.8171938589879</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C6" t="n">
-        <v>405.8171938589879</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D6" t="n">
-        <v>405.8171938589879</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E6" t="n">
-        <v>405.8171938589879</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F6" t="n">
-        <v>271.1233958088623</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G6" t="n">
-        <v>142.3948958321468</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H6" t="n">
-        <v>42.45703837884487</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I6" t="n">
         <v>10.85835194379454</v>
       </c>
       <c r="J6" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K6" t="n">
-        <v>71.11249847690068</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="L6" t="n">
-        <v>205.4846037813581</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="M6" t="n">
-        <v>205.4846037813581</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="N6" t="n">
-        <v>205.4846037813581</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="O6" t="n">
-        <v>274.1733865808121</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="P6" t="n">
-        <v>408.5454918852696</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q6" t="n">
         <v>542.9175971897271</v>
@@ -4671,25 +4671,25 @@
         <v>542.9175971897271</v>
       </c>
       <c r="S6" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="T6" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="U6" t="n">
-        <v>542.9175971897271</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="V6" t="n">
-        <v>542.9175971897271</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="W6" t="n">
-        <v>405.8171938589879</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="X6" t="n">
-        <v>405.8171938589879</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="Y6" t="n">
-        <v>405.8171938589879</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="7">
@@ -4747,25 +4747,25 @@
         <v>542.917597189727</v>
       </c>
       <c r="R7" t="n">
-        <v>542.917597189727</v>
+        <v>422.159561936012</v>
       </c>
       <c r="S7" t="n">
-        <v>542.917597189727</v>
+        <v>422.159561936012</v>
       </c>
       <c r="T7" t="n">
         <v>422.159561936012</v>
       </c>
       <c r="U7" t="n">
-        <v>422.159561936012</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="V7" t="n">
-        <v>422.159561936012</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="W7" t="n">
-        <v>285.0591586052728</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="X7" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y7" t="n">
         <v>10.85835194379454</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>742.7148349798613</v>
+        <v>752.8256216292867</v>
       </c>
       <c r="C8" t="n">
-        <v>742.7148349798613</v>
+        <v>752.8256216292867</v>
       </c>
       <c r="D8" t="n">
-        <v>742.7148349798613</v>
+        <v>401.415823401866</v>
       </c>
       <c r="E8" t="n">
-        <v>391.3050367524405</v>
+        <v>50.0060251744453</v>
       </c>
       <c r="F8" t="n">
         <v>39.89523852501969</v>
       </c>
       <c r="G8" t="n">
-        <v>27.83165601961173</v>
+        <v>27.83165601961172</v>
       </c>
       <c r="H8" t="n">
-        <v>27.83165601961173</v>
+        <v>27.83165601961172</v>
       </c>
       <c r="I8" t="n">
-        <v>27.83165601961173</v>
+        <v>27.83165601961172</v>
       </c>
       <c r="J8" t="n">
-        <v>27.83165601961173</v>
+        <v>99.83020029241737</v>
       </c>
       <c r="K8" t="n">
-        <v>27.83165601961173</v>
+        <v>339.9705723372001</v>
       </c>
       <c r="L8" t="n">
-        <v>372.2483992623069</v>
+        <v>339.9705723372001</v>
       </c>
       <c r="M8" t="n">
-        <v>716.665142505002</v>
+        <v>684.3873155798951</v>
       </c>
       <c r="N8" t="n">
-        <v>1061.081885747697</v>
+        <v>858.4213200516989</v>
       </c>
       <c r="O8" t="n">
-        <v>1297.150547294049</v>
+        <v>1163.425904524533</v>
       </c>
       <c r="P8" t="n">
-        <v>1297.150547294049</v>
+        <v>1391.582800980586</v>
       </c>
       <c r="Q8" t="n">
         <v>1391.582800980586</v>
       </c>
       <c r="R8" t="n">
-        <v>1300.94451447644</v>
+        <v>1391.582800980586</v>
       </c>
       <c r="S8" t="n">
-        <v>1113.715539106794</v>
+        <v>1391.582800980586</v>
       </c>
       <c r="T8" t="n">
-        <v>1113.715539106794</v>
+        <v>1167.223854711597</v>
       </c>
       <c r="U8" t="n">
-        <v>1113.715539106794</v>
+        <v>1167.223854711597</v>
       </c>
       <c r="V8" t="n">
-        <v>1113.715539106794</v>
+        <v>830.2445806075384</v>
       </c>
       <c r="W8" t="n">
-        <v>1094.124633207282</v>
+        <v>830.2445806075384</v>
       </c>
       <c r="X8" t="n">
-        <v>742.7148349798613</v>
+        <v>830.2445806075384</v>
       </c>
       <c r="Y8" t="n">
-        <v>742.7148349798613</v>
+        <v>752.8256216292867</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>124.253098953899</v>
+        <v>386.6461140653115</v>
       </c>
       <c r="C9" t="n">
-        <v>124.253098953899</v>
+        <v>224.9424413062661</v>
       </c>
       <c r="D9" t="n">
-        <v>124.253098953899</v>
+        <v>224.9424413062661</v>
       </c>
       <c r="E9" t="n">
-        <v>124.253098953899</v>
+        <v>224.9424413062661</v>
       </c>
       <c r="F9" t="n">
-        <v>124.253098953899</v>
+        <v>224.9424413062661</v>
       </c>
       <c r="G9" t="n">
-        <v>27.83165601961173</v>
+        <v>96.21394132955072</v>
       </c>
       <c r="H9" t="n">
-        <v>27.83165601961173</v>
+        <v>96.21394132955072</v>
       </c>
       <c r="I9" t="n">
-        <v>27.83165601961173</v>
+        <v>27.83165601961172</v>
       </c>
       <c r="J9" t="n">
-        <v>88.08580255271787</v>
+        <v>27.83165601961172</v>
       </c>
       <c r="K9" t="n">
-        <v>317.5763551129065</v>
+        <v>27.83165601961172</v>
       </c>
       <c r="L9" t="n">
-        <v>661.9930983556017</v>
+        <v>200.5609414669066</v>
       </c>
       <c r="M9" t="n">
-        <v>1006.409841598297</v>
+        <v>544.9776847096016</v>
       </c>
       <c r="N9" t="n">
-        <v>1233.811171194992</v>
+        <v>889.3944279522966</v>
       </c>
       <c r="O9" t="n">
         <v>1233.811171194992</v>
@@ -4905,28 +4905,28 @@
         <v>1391.582800980586</v>
       </c>
       <c r="R9" t="n">
-        <v>1391.582800980586</v>
+        <v>1331.798532075532</v>
       </c>
       <c r="S9" t="n">
-        <v>1391.582800980586</v>
+        <v>1331.798532075532</v>
       </c>
       <c r="T9" t="n">
-        <v>1202.897697146572</v>
+        <v>1143.113428241517</v>
       </c>
       <c r="U9" t="n">
-        <v>984.4029047448817</v>
+        <v>924.618635839827</v>
       </c>
       <c r="V9" t="n">
-        <v>756.0072821932156</v>
+        <v>924.618635839827</v>
       </c>
       <c r="W9" t="n">
-        <v>514.6914134265256</v>
+        <v>683.302767073137</v>
       </c>
       <c r="X9" t="n">
-        <v>316.7744253043202</v>
+        <v>683.302767073137</v>
       </c>
       <c r="Y9" t="n">
-        <v>124.253098953899</v>
+        <v>546.0655568465723</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>333.3842041660719</v>
+        <v>27.83165601961172</v>
       </c>
       <c r="C10" t="n">
-        <v>333.3842041660719</v>
+        <v>27.83165601961172</v>
       </c>
       <c r="D10" t="n">
-        <v>180.3123109938346</v>
+        <v>27.83165601961172</v>
       </c>
       <c r="E10" t="n">
-        <v>180.3123109938346</v>
+        <v>27.83165601961172</v>
       </c>
       <c r="F10" t="n">
-        <v>27.83165601961173</v>
+        <v>27.83165601961172</v>
       </c>
       <c r="G10" t="n">
-        <v>27.83165601961173</v>
+        <v>27.83165601961172</v>
       </c>
       <c r="H10" t="n">
-        <v>27.83165601961173</v>
+        <v>27.83165601961172</v>
       </c>
       <c r="I10" t="n">
-        <v>27.83165601961173</v>
+        <v>27.83165601961172</v>
       </c>
       <c r="J10" t="n">
-        <v>27.83165601961173</v>
+        <v>27.83165601961172</v>
       </c>
       <c r="K10" t="n">
-        <v>61.43584376425514</v>
+        <v>61.43584376425513</v>
       </c>
       <c r="L10" t="n">
-        <v>162.0429231645147</v>
+        <v>162.0429231645146</v>
       </c>
       <c r="M10" t="n">
-        <v>280.0364292921164</v>
+        <v>280.0364292921163</v>
       </c>
       <c r="N10" t="n">
-        <v>398.4587710417168</v>
+        <v>398.4587710417167</v>
       </c>
       <c r="O10" t="n">
         <v>496.9224175374064</v>
       </c>
       <c r="P10" t="n">
-        <v>559.8909012655442</v>
+        <v>559.8909012655441</v>
       </c>
       <c r="Q10" t="n">
-        <v>559.8909012655442</v>
+        <v>559.8909012655441</v>
       </c>
       <c r="R10" t="n">
-        <v>559.8909012655442</v>
+        <v>559.8909012655441</v>
       </c>
       <c r="S10" t="n">
-        <v>559.8909012655442</v>
+        <v>559.8909012655441</v>
       </c>
       <c r="T10" t="n">
-        <v>559.8909012655442</v>
+        <v>326.711948081223</v>
       </c>
       <c r="U10" t="n">
-        <v>559.8909012655442</v>
+        <v>313.9880575022126</v>
       </c>
       <c r="V10" t="n">
-        <v>559.8909012655442</v>
+        <v>313.9880575022126</v>
       </c>
       <c r="W10" t="n">
-        <v>333.3842041660719</v>
+        <v>27.83165601961172</v>
       </c>
       <c r="X10" t="n">
-        <v>333.3842041660719</v>
+        <v>27.83165601961172</v>
       </c>
       <c r="Y10" t="n">
-        <v>333.3842041660719</v>
+        <v>27.83165601961172</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1302.42853568298</v>
+        <v>829.4322643186302</v>
       </c>
       <c r="C11" t="n">
-        <v>1028.0906999556</v>
+        <v>555.0944285912499</v>
       </c>
       <c r="D11" t="n">
-        <v>762.8626581226354</v>
+        <v>289.8663867582857</v>
       </c>
       <c r="E11" t="n">
-        <v>716.5750172349422</v>
+        <v>289.8663867582857</v>
       </c>
       <c r="F11" t="n">
-        <v>410.0197494849247</v>
+        <v>289.8663867582857</v>
       </c>
       <c r="G11" t="n">
-        <v>101.8557218398676</v>
+        <v>289.8663867582857</v>
       </c>
       <c r="H11" t="n">
-        <v>101.8557218398676</v>
+        <v>68.16439358041201</v>
       </c>
       <c r="I11" t="n">
-        <v>49.89789237272065</v>
+        <v>49.89789237272068</v>
       </c>
       <c r="J11" t="n">
-        <v>150.5149863050028</v>
+        <v>150.5149863050027</v>
       </c>
       <c r="K11" t="n">
-        <v>433.5471456956566</v>
+        <v>433.5471456956564</v>
       </c>
       <c r="L11" t="n">
-        <v>834.643573734435</v>
+        <v>834.6435737344352</v>
       </c>
       <c r="M11" t="n">
         <v>1287.090291296314</v>
       </c>
       <c r="N11" t="n">
-        <v>1725.587241372586</v>
+        <v>1725.587241372587</v>
       </c>
       <c r="O11" t="n">
-        <v>2087.404487698326</v>
+        <v>2087.404487698327</v>
       </c>
       <c r="P11" t="n">
-        <v>2364.049676638448</v>
+        <v>2364.049676638449</v>
       </c>
       <c r="Q11" t="n">
-        <v>2494.894618636033</v>
+        <v>2494.894618636034</v>
       </c>
       <c r="R11" t="n">
-        <v>2494.894618636033</v>
+        <v>2494.894618636034</v>
       </c>
       <c r="S11" t="n">
-        <v>2494.894618636033</v>
+        <v>2423.101285666183</v>
       </c>
       <c r="T11" t="n">
-        <v>2494.894618636033</v>
+        <v>2307.844279756033</v>
       </c>
       <c r="U11" t="n">
-        <v>2347.632728166715</v>
+        <v>2160.582389286715</v>
       </c>
       <c r="V11" t="n">
-        <v>2118.249377002468</v>
+        <v>1931.199038122468</v>
       </c>
       <c r="W11" t="n">
-        <v>1863.310369799881</v>
+        <v>1676.260030919881</v>
       </c>
       <c r="X11" t="n">
-        <v>1588.876152261187</v>
+        <v>1401.825813381187</v>
       </c>
       <c r="Y11" t="n">
-        <v>1588.876152261187</v>
+        <v>1115.879880896837</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>871.1637284793849</v>
+        <v>871.1637284793862</v>
       </c>
       <c r="C12" t="n">
-        <v>709.4600557203396</v>
+        <v>709.460055720341</v>
       </c>
       <c r="D12" t="n">
-        <v>570.6214187105517</v>
+        <v>570.621418710553</v>
       </c>
       <c r="E12" t="n">
-        <v>423.5934087674229</v>
+        <v>423.5934087674243</v>
       </c>
       <c r="F12" t="n">
-        <v>288.8996107172973</v>
+        <v>288.8996107172986</v>
       </c>
       <c r="G12" t="n">
-        <v>160.3551862077976</v>
+        <v>160.3551862077989</v>
       </c>
       <c r="H12" t="n">
-        <v>111.9424916403637</v>
+        <v>62.19511024050152</v>
       </c>
       <c r="I12" t="n">
-        <v>49.89789237272065</v>
+        <v>49.89789237272068</v>
       </c>
       <c r="J12" t="n">
-        <v>49.89789237272065</v>
+        <v>127.1970510263184</v>
       </c>
       <c r="K12" t="n">
-        <v>49.89789237272065</v>
+        <v>385.8202441900138</v>
       </c>
       <c r="L12" t="n">
-        <v>454.8921680254013</v>
+        <v>790.8145198426946</v>
       </c>
       <c r="M12" t="n">
-        <v>985.6379002646001</v>
+        <v>1321.560252081894</v>
       </c>
       <c r="N12" t="n">
-        <v>1543.825795760222</v>
+        <v>1879.748147577516</v>
       </c>
       <c r="O12" t="n">
-        <v>1978.950437714714</v>
+        <v>1977.546740413759</v>
       </c>
       <c r="P12" t="n">
-        <v>2315.49720596223</v>
+        <v>2314.093508661275</v>
       </c>
       <c r="Q12" t="n">
-        <v>2494.894618636033</v>
+        <v>2494.894618636034</v>
       </c>
       <c r="R12" t="n">
-        <v>2446.539175669162</v>
+        <v>2446.539175669163</v>
       </c>
       <c r="S12" t="n">
-        <v>2297.158809750581</v>
+        <v>2297.158809750582</v>
       </c>
       <c r="T12" t="n">
-        <v>2109.215659225212</v>
+        <v>2109.215659225213</v>
       </c>
       <c r="U12" t="n">
-        <v>1890.732977051628</v>
+        <v>1890.73297705163</v>
       </c>
       <c r="V12" t="n">
-        <v>1662.337354499962</v>
+        <v>1662.337354499964</v>
       </c>
       <c r="W12" t="n">
-        <v>1421.021485733272</v>
+        <v>1421.021485733273</v>
       </c>
       <c r="X12" t="n">
-        <v>1223.104497611067</v>
+        <v>1223.104497611068</v>
       </c>
       <c r="Y12" t="n">
-        <v>1030.583171260646</v>
+        <v>1030.583171260647</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>390.2321061730922</v>
+        <v>390.2321061730933</v>
       </c>
       <c r="C13" t="n">
-        <v>328.2120595745847</v>
+        <v>328.2120595745859</v>
       </c>
       <c r="D13" t="n">
-        <v>282.7360893421596</v>
+        <v>282.7360893421608</v>
       </c>
       <c r="E13" t="n">
-        <v>238.3229980432906</v>
+        <v>238.3229980432919</v>
       </c>
       <c r="F13" t="n">
-        <v>193.4382660088799</v>
+        <v>193.4382660088813</v>
       </c>
       <c r="G13" t="n">
-        <v>132.2687630047601</v>
+        <v>132.2687630047604</v>
       </c>
       <c r="H13" t="n">
-        <v>81.86410971545675</v>
+        <v>81.86410971545706</v>
       </c>
       <c r="I13" t="n">
-        <v>49.89789237272065</v>
+        <v>49.89789237272068</v>
       </c>
       <c r="J13" t="n">
-        <v>107.1840497453361</v>
+        <v>107.1840497453367</v>
       </c>
       <c r="K13" t="n">
-        <v>263.8156952061311</v>
+        <v>263.8156952061317</v>
       </c>
       <c r="L13" t="n">
-        <v>492.3645364758688</v>
+        <v>492.3645364758695</v>
       </c>
       <c r="M13" t="n">
-        <v>739.5221929430963</v>
+        <v>739.5221929430974</v>
       </c>
       <c r="N13" t="n">
-        <v>986.5449288199934</v>
+        <v>986.5449288199945</v>
       </c>
       <c r="O13" t="n">
-        <v>1211.842074972632</v>
+        <v>1211.842074972633</v>
       </c>
       <c r="P13" t="n">
-        <v>1398.55852435658</v>
+        <v>1398.558524356582</v>
       </c>
       <c r="Q13" t="n">
-        <v>1478.908104741646</v>
+        <v>1478.908104741647</v>
       </c>
       <c r="R13" t="n">
-        <v>1443.921155531527</v>
+        <v>1443.921155531529</v>
       </c>
       <c r="S13" t="n">
-        <v>1340.496739450607</v>
+        <v>1340.496739450609</v>
       </c>
       <c r="T13" t="n">
-        <v>1215.573087964848</v>
+        <v>1215.57308796485</v>
       </c>
       <c r="U13" t="n">
-        <v>1035.987188994936</v>
+        <v>1035.987188994937</v>
       </c>
       <c r="V13" t="n">
-        <v>882.8478074931711</v>
+        <v>882.8478074931721</v>
       </c>
       <c r="W13" t="n">
-        <v>704.2873289503825</v>
+        <v>704.2873289503835</v>
       </c>
       <c r="X13" t="n">
-        <v>580.6307877855705</v>
+        <v>580.6307877855716</v>
       </c>
       <c r="Y13" t="n">
-        <v>466.1915519176598</v>
+        <v>466.1915519176609</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1303.426494960385</v>
+        <v>895.3410246007229</v>
       </c>
       <c r="C14" t="n">
-        <v>1303.426494960385</v>
+        <v>895.3410246007229</v>
       </c>
       <c r="D14" t="n">
-        <v>1038.19845312742</v>
+        <v>630.1129827677587</v>
       </c>
       <c r="E14" t="n">
-        <v>751.0086561733394</v>
+        <v>630.1129827677587</v>
       </c>
       <c r="F14" t="n">
-        <v>444.4533884233219</v>
+        <v>323.5577150177413</v>
       </c>
       <c r="G14" t="n">
-        <v>136.2893607782648</v>
+        <v>323.5577150177413</v>
       </c>
       <c r="H14" t="n">
         <v>101.8557218398676</v>
       </c>
       <c r="I14" t="n">
-        <v>49.89789237272065</v>
+        <v>49.89789237272067</v>
       </c>
       <c r="J14" t="n">
         <v>150.5149863050026</v>
@@ -5291,37 +5291,37 @@
         <v>1725.587241372586</v>
       </c>
       <c r="O14" t="n">
-        <v>2087.404487698326</v>
+        <v>2087.404487698327</v>
       </c>
       <c r="P14" t="n">
-        <v>2364.049676638448</v>
+        <v>2364.049676638449</v>
       </c>
       <c r="Q14" t="n">
-        <v>2494.894618636033</v>
+        <v>2494.894618636034</v>
       </c>
       <c r="R14" t="n">
-        <v>2494.894618636032</v>
+        <v>2494.894618636034</v>
       </c>
       <c r="S14" t="n">
-        <v>2494.894618636032</v>
+        <v>2423.101285666182</v>
       </c>
       <c r="T14" t="n">
-        <v>2379.637612725882</v>
+        <v>2307.844279756032</v>
       </c>
       <c r="U14" t="n">
-        <v>2379.637612725882</v>
+        <v>2160.582389286714</v>
       </c>
       <c r="V14" t="n">
-        <v>2150.254261561636</v>
+        <v>1931.199038122468</v>
       </c>
       <c r="W14" t="n">
-        <v>2150.254261561636</v>
+        <v>1676.260030919881</v>
       </c>
       <c r="X14" t="n">
-        <v>1875.820044022941</v>
+        <v>1467.734573663279</v>
       </c>
       <c r="Y14" t="n">
-        <v>1589.874111538591</v>
+        <v>1181.78864117893</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>871.1637284793844</v>
+        <v>871.1637284793858</v>
       </c>
       <c r="C15" t="n">
-        <v>709.4600557203391</v>
+        <v>709.4600557203405</v>
       </c>
       <c r="D15" t="n">
-        <v>570.6214187105512</v>
+        <v>570.6214187105526</v>
       </c>
       <c r="E15" t="n">
-        <v>423.5934087674224</v>
+        <v>423.5934087674238</v>
       </c>
       <c r="F15" t="n">
-        <v>288.8996107172968</v>
+        <v>288.8996107172982</v>
       </c>
       <c r="G15" t="n">
-        <v>160.3551862077971</v>
+        <v>160.3551862077985</v>
       </c>
       <c r="H15" t="n">
-        <v>111.9424916403637</v>
+        <v>62.19511024050105</v>
       </c>
       <c r="I15" t="n">
-        <v>49.89789237272065</v>
+        <v>49.89789237272067</v>
       </c>
       <c r="J15" t="n">
-        <v>49.89789237272065</v>
+        <v>127.1970510263183</v>
       </c>
       <c r="K15" t="n">
-        <v>229.2953050465225</v>
+        <v>385.8202441900136</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2895806992032</v>
+        <v>790.8145198426943</v>
       </c>
       <c r="M15" t="n">
-        <v>1165.035312938402</v>
+        <v>1321.560252081893</v>
       </c>
       <c r="N15" t="n">
-        <v>1723.223208434024</v>
+        <v>1542.422098459267</v>
       </c>
       <c r="O15" t="n">
-        <v>2158.347850388516</v>
+        <v>1977.546740413759</v>
       </c>
       <c r="P15" t="n">
-        <v>2494.894618636032</v>
+        <v>2314.093508661275</v>
       </c>
       <c r="Q15" t="n">
-        <v>2494.894618636032</v>
+        <v>2494.894618636034</v>
       </c>
       <c r="R15" t="n">
-        <v>2446.539175669162</v>
+        <v>2446.539175669163</v>
       </c>
       <c r="S15" t="n">
-        <v>2297.15880975058</v>
+        <v>2297.158809750581</v>
       </c>
       <c r="T15" t="n">
-        <v>2109.215659225211</v>
+        <v>2109.215659225213</v>
       </c>
       <c r="U15" t="n">
-        <v>1890.732977051628</v>
+        <v>1890.732977051629</v>
       </c>
       <c r="V15" t="n">
-        <v>1662.337354499962</v>
+        <v>1662.337354499963</v>
       </c>
       <c r="W15" t="n">
-        <v>1421.021485733272</v>
+        <v>1421.021485733273</v>
       </c>
       <c r="X15" t="n">
-        <v>1223.104497611066</v>
+        <v>1223.104497611068</v>
       </c>
       <c r="Y15" t="n">
-        <v>1030.583171260645</v>
+        <v>1030.583171260647</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>390.232106173092</v>
+        <v>390.2321061730926</v>
       </c>
       <c r="C16" t="n">
-        <v>328.2120595745845</v>
+        <v>328.2120595745852</v>
       </c>
       <c r="D16" t="n">
-        <v>282.7360893421595</v>
+        <v>282.7360893421601</v>
       </c>
       <c r="E16" t="n">
-        <v>238.3229980432905</v>
+        <v>238.3229980432912</v>
       </c>
       <c r="F16" t="n">
-        <v>193.4382660088799</v>
+        <v>193.4382660088806</v>
       </c>
       <c r="G16" t="n">
-        <v>132.26876300476</v>
+        <v>132.2687630047608</v>
       </c>
       <c r="H16" t="n">
-        <v>81.86410971545659</v>
+        <v>81.86410971545752</v>
       </c>
       <c r="I16" t="n">
-        <v>49.89789237272065</v>
+        <v>49.89789237272067</v>
       </c>
       <c r="J16" t="n">
-        <v>107.1840497453366</v>
+        <v>107.1840497453367</v>
       </c>
       <c r="K16" t="n">
-        <v>263.8156952061315</v>
+        <v>263.8156952061316</v>
       </c>
       <c r="L16" t="n">
         <v>492.3645364758694</v>
       </c>
       <c r="M16" t="n">
-        <v>739.5221929430969</v>
+        <v>739.522192943097</v>
       </c>
       <c r="N16" t="n">
-        <v>986.5449288199941</v>
+        <v>986.5449288199942</v>
       </c>
       <c r="O16" t="n">
         <v>1211.842074972632</v>
@@ -5467,19 +5467,19 @@
         <v>1215.573087964849</v>
       </c>
       <c r="U16" t="n">
-        <v>1035.987188994936</v>
+        <v>1035.987188994937</v>
       </c>
       <c r="V16" t="n">
-        <v>882.8478074931711</v>
+        <v>882.8478074931716</v>
       </c>
       <c r="W16" t="n">
-        <v>704.2873289503824</v>
+        <v>704.287328950383</v>
       </c>
       <c r="X16" t="n">
-        <v>580.6307877855703</v>
+        <v>580.6307877855709</v>
       </c>
       <c r="Y16" t="n">
-        <v>466.1915519176596</v>
+        <v>466.1915519176602</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1334.370887828038</v>
+        <v>1334.370887828039</v>
       </c>
       <c r="C17" t="n">
-        <v>1123.150380039333</v>
+        <v>1123.150380039334</v>
       </c>
       <c r="D17" t="n">
-        <v>921.0396661450454</v>
+        <v>921.0396661450461</v>
       </c>
       <c r="E17" t="n">
-        <v>696.9671971296406</v>
+        <v>696.9671971296412</v>
       </c>
       <c r="F17" t="n">
-        <v>453.5292573182994</v>
+        <v>453.5292573182999</v>
       </c>
       <c r="G17" t="n">
-        <v>208.4825576119182</v>
+        <v>208.4825576119184</v>
       </c>
       <c r="H17" t="n">
-        <v>49.89789237272065</v>
+        <v>49.89789237272069</v>
       </c>
       <c r="I17" t="n">
-        <v>49.89789237272065</v>
+        <v>49.89789237272069</v>
       </c>
       <c r="J17" t="n">
         <v>150.5149863050026</v>
@@ -5522,43 +5522,43 @@
         <v>834.6435737344345</v>
       </c>
       <c r="M17" t="n">
-        <v>1287.090291296314</v>
+        <v>1287.090291296315</v>
       </c>
       <c r="N17" t="n">
-        <v>1725.587241372586</v>
+        <v>1725.587241372588</v>
       </c>
       <c r="O17" t="n">
-        <v>2087.404487698326</v>
+        <v>2087.404487698328</v>
       </c>
       <c r="P17" t="n">
-        <v>2364.049676638448</v>
+        <v>2364.04967663845</v>
       </c>
       <c r="Q17" t="n">
-        <v>2494.894618636033</v>
+        <v>2494.894618636034</v>
       </c>
       <c r="R17" t="n">
-        <v>2494.894618636032</v>
+        <v>2494.894618636034</v>
       </c>
       <c r="S17" t="n">
-        <v>2486.218613604857</v>
+        <v>2486.218613604859</v>
       </c>
       <c r="T17" t="n">
-        <v>2434.078935633383</v>
+        <v>2434.078935633385</v>
       </c>
       <c r="U17" t="n">
-        <v>2349.934373102741</v>
+        <v>2349.934373102743</v>
       </c>
       <c r="V17" t="n">
-        <v>2183.668349877171</v>
+        <v>2183.668349877173</v>
       </c>
       <c r="W17" t="n">
-        <v>1991.84667061326</v>
+        <v>1991.846670613262</v>
       </c>
       <c r="X17" t="n">
-        <v>1780.529781013242</v>
+        <v>1780.529781013243</v>
       </c>
       <c r="Y17" t="n">
-        <v>1557.701176467568</v>
+        <v>1557.70117646757</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>919.5191714462551</v>
+        <v>871.1637284793867</v>
       </c>
       <c r="C18" t="n">
-        <v>757.8154986872098</v>
+        <v>709.4600557203414</v>
       </c>
       <c r="D18" t="n">
-        <v>618.9768616774219</v>
+        <v>570.6214187105535</v>
       </c>
       <c r="E18" t="n">
-        <v>471.9488517342931</v>
+        <v>423.5934087674247</v>
       </c>
       <c r="F18" t="n">
-        <v>337.2550536841675</v>
+        <v>338.6469921171608</v>
       </c>
       <c r="G18" t="n">
-        <v>208.7106291746678</v>
+        <v>210.1025676076612</v>
       </c>
       <c r="H18" t="n">
-        <v>110.5505532073704</v>
+        <v>111.9424916403638</v>
       </c>
       <c r="I18" t="n">
-        <v>49.89789237272065</v>
+        <v>49.89789237272069</v>
       </c>
       <c r="J18" t="n">
-        <v>49.89789237272065</v>
+        <v>127.1970510263183</v>
       </c>
       <c r="K18" t="n">
-        <v>49.89789237272065</v>
+        <v>385.8202441900137</v>
       </c>
       <c r="L18" t="n">
-        <v>453.4884707244448</v>
+        <v>790.8145198426944</v>
       </c>
       <c r="M18" t="n">
-        <v>984.2342029636437</v>
+        <v>1321.560252081893</v>
       </c>
       <c r="N18" t="n">
-        <v>1542.422098459266</v>
+        <v>1723.223208434027</v>
       </c>
       <c r="O18" t="n">
-        <v>1977.546740413757</v>
+        <v>2158.347850388518</v>
       </c>
       <c r="P18" t="n">
-        <v>2314.093508661274</v>
+        <v>2494.894618636034</v>
       </c>
       <c r="Q18" t="n">
-        <v>2494.894618636032</v>
+        <v>2494.894618636034</v>
       </c>
       <c r="R18" t="n">
-        <v>2494.894618636032</v>
+        <v>2446.539175669164</v>
       </c>
       <c r="S18" t="n">
-        <v>2345.514252717451</v>
+        <v>2297.158809750582</v>
       </c>
       <c r="T18" t="n">
-        <v>2157.571102192082</v>
+        <v>2109.215659225214</v>
       </c>
       <c r="U18" t="n">
-        <v>1939.088420018498</v>
+        <v>1890.73297705163</v>
       </c>
       <c r="V18" t="n">
-        <v>1710.692797466832</v>
+        <v>1662.337354499964</v>
       </c>
       <c r="W18" t="n">
-        <v>1469.376928700142</v>
+        <v>1421.021485733274</v>
       </c>
       <c r="X18" t="n">
-        <v>1271.459940577937</v>
+        <v>1223.104497611069</v>
       </c>
       <c r="Y18" t="n">
-        <v>1078.938614227516</v>
+        <v>1030.583171260648</v>
       </c>
     </row>
     <row r="19">
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>159.7933566950791</v>
+        <v>49.89789237272069</v>
       </c>
       <c r="C19" t="n">
-        <v>49.89789237272065</v>
+        <v>49.89789237272069</v>
       </c>
       <c r="D19" t="n">
-        <v>49.89789237272065</v>
+        <v>49.89789237272069</v>
       </c>
       <c r="E19" t="n">
-        <v>49.89789237272065</v>
+        <v>49.89789237272069</v>
       </c>
       <c r="F19" t="n">
-        <v>49.89789237272065</v>
+        <v>49.89789237272069</v>
       </c>
       <c r="G19" t="n">
-        <v>49.89789237272065</v>
+        <v>49.89789237272069</v>
       </c>
       <c r="H19" t="n">
-        <v>49.89789237272065</v>
+        <v>49.89789237272069</v>
       </c>
       <c r="I19" t="n">
-        <v>49.89789237272065</v>
+        <v>49.89789237272069</v>
       </c>
       <c r="J19" t="n">
-        <v>49.89789237272065</v>
+        <v>49.89789237272069</v>
       </c>
       <c r="K19" t="n">
-        <v>101.0747737602056</v>
+        <v>101.0747737602057</v>
       </c>
       <c r="L19" t="n">
-        <v>224.1688509566334</v>
+        <v>224.1688509566335</v>
       </c>
       <c r="M19" t="n">
-        <v>365.871743350551</v>
+        <v>365.8717433505511</v>
       </c>
       <c r="N19" t="n">
-        <v>507.4397151541382</v>
+        <v>507.4397151541383</v>
       </c>
       <c r="O19" t="n">
         <v>627.2820972334665</v>
@@ -5698,25 +5698,25 @@
         <v>708.5437825441054</v>
       </c>
       <c r="S19" t="n">
-        <v>668.2366944018617</v>
+        <v>668.2366944018614</v>
       </c>
       <c r="T19" t="n">
-        <v>606.4303708547784</v>
+        <v>606.4303708547779</v>
       </c>
       <c r="U19" t="n">
-        <v>489.9617998235422</v>
+        <v>380.0663355011847</v>
       </c>
       <c r="V19" t="n">
-        <v>399.9397462604533</v>
+        <v>290.0442819380955</v>
       </c>
       <c r="W19" t="n">
-        <v>284.4965956563408</v>
+        <v>174.6011313339829</v>
       </c>
       <c r="X19" t="n">
-        <v>223.957382430205</v>
+        <v>114.0619181078469</v>
       </c>
       <c r="Y19" t="n">
-        <v>172.6354745009705</v>
+        <v>62.74001017861227</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5726,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1334.370887828038</v>
+        <v>1334.370887828039</v>
       </c>
       <c r="C20" t="n">
-        <v>1123.150380039334</v>
+        <v>1123.150380039335</v>
       </c>
       <c r="D20" t="n">
-        <v>921.0396661450461</v>
+        <v>921.0396661450469</v>
       </c>
       <c r="E20" t="n">
-        <v>696.9671971296414</v>
+        <v>696.9671971296408</v>
       </c>
       <c r="F20" t="n">
-        <v>453.5292573183</v>
+        <v>453.5292573182994</v>
       </c>
       <c r="G20" t="n">
-        <v>208.4825576119182</v>
+        <v>208.4825576119184</v>
       </c>
       <c r="H20" t="n">
-        <v>49.89789237272067</v>
+        <v>49.89789237272069</v>
       </c>
       <c r="I20" t="n">
-        <v>49.89789237272067</v>
+        <v>49.89789237272069</v>
       </c>
       <c r="J20" t="n">
         <v>150.5149863050026</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5471456956561</v>
+        <v>433.5471456956562</v>
       </c>
       <c r="L20" t="n">
-        <v>834.6435737344344</v>
+        <v>834.6435737344345</v>
       </c>
       <c r="M20" t="n">
-        <v>1287.090291296314</v>
+        <v>1287.090291296315</v>
       </c>
       <c r="N20" t="n">
-        <v>1725.587241372587</v>
+        <v>1725.587241372588</v>
       </c>
       <c r="O20" t="n">
-        <v>2087.404487698327</v>
+        <v>2087.404487698328</v>
       </c>
       <c r="P20" t="n">
-        <v>2364.049676638449</v>
+        <v>2364.04967663845</v>
       </c>
       <c r="Q20" t="n">
         <v>2494.894618636034</v>
@@ -5777,25 +5777,25 @@
         <v>2494.894618636034</v>
       </c>
       <c r="S20" t="n">
-        <v>2486.218613604858</v>
+        <v>2486.218613604859</v>
       </c>
       <c r="T20" t="n">
-        <v>2434.078935633383</v>
+        <v>2434.078935633385</v>
       </c>
       <c r="U20" t="n">
-        <v>2349.934373102742</v>
+        <v>2349.934373102743</v>
       </c>
       <c r="V20" t="n">
-        <v>2183.668349877171</v>
+        <v>2183.668349877173</v>
       </c>
       <c r="W20" t="n">
-        <v>1991.846670613261</v>
+        <v>1991.846670613262</v>
       </c>
       <c r="X20" t="n">
-        <v>1780.529781013243</v>
+        <v>1780.529781013244</v>
       </c>
       <c r="Y20" t="n">
-        <v>1557.701176467569</v>
+        <v>1557.70117646757</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>920.9111098792486</v>
+        <v>871.1637284793867</v>
       </c>
       <c r="C21" t="n">
-        <v>759.2074371202033</v>
+        <v>709.4600557203414</v>
       </c>
       <c r="D21" t="n">
-        <v>620.3688001104153</v>
+        <v>570.6214187105535</v>
       </c>
       <c r="E21" t="n">
-        <v>473.3407901672865</v>
+        <v>423.5934087674247</v>
       </c>
       <c r="F21" t="n">
-        <v>338.6469921171608</v>
+        <v>288.8996107172991</v>
       </c>
       <c r="G21" t="n">
-        <v>210.1025676076612</v>
+        <v>160.3551862077994</v>
       </c>
       <c r="H21" t="n">
-        <v>111.9424916403637</v>
+        <v>62.19511024050196</v>
       </c>
       <c r="I21" t="n">
-        <v>49.89789237272067</v>
+        <v>49.89789237272069</v>
       </c>
       <c r="J21" t="n">
-        <v>49.89789237272067</v>
+        <v>127.1970510263183</v>
       </c>
       <c r="K21" t="n">
-        <v>308.521085536416</v>
+        <v>385.8202441900137</v>
       </c>
       <c r="L21" t="n">
-        <v>713.5153611890967</v>
+        <v>453.4884707244471</v>
       </c>
       <c r="M21" t="n">
-        <v>1244.261093428296</v>
+        <v>984.234202963646</v>
       </c>
       <c r="N21" t="n">
-        <v>1802.448988923918</v>
+        <v>1542.422098459268</v>
       </c>
       <c r="O21" t="n">
-        <v>2237.573630878409</v>
+        <v>1977.54674041376</v>
       </c>
       <c r="P21" t="n">
-        <v>2314.093508661275</v>
+        <v>2314.093508661276</v>
       </c>
       <c r="Q21" t="n">
         <v>2494.894618636034</v>
       </c>
       <c r="R21" t="n">
-        <v>2494.894618636034</v>
+        <v>2446.539175669164</v>
       </c>
       <c r="S21" t="n">
-        <v>2346.906191150444</v>
+        <v>2297.158809750582</v>
       </c>
       <c r="T21" t="n">
-        <v>2158.963040625075</v>
+        <v>2109.215659225214</v>
       </c>
       <c r="U21" t="n">
-        <v>1940.480358451492</v>
+        <v>1890.73297705163</v>
       </c>
       <c r="V21" t="n">
-        <v>1712.084735899826</v>
+        <v>1662.337354499964</v>
       </c>
       <c r="W21" t="n">
-        <v>1470.768867133136</v>
+        <v>1421.021485733274</v>
       </c>
       <c r="X21" t="n">
-        <v>1272.851879010931</v>
+        <v>1223.104497611069</v>
       </c>
       <c r="Y21" t="n">
-        <v>1080.33055266051</v>
+        <v>1030.583171260648</v>
       </c>
     </row>
     <row r="22">
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.89789237272067</v>
+        <v>49.89789237272069</v>
       </c>
       <c r="C22" t="n">
-        <v>49.89789237272067</v>
+        <v>49.89789237272069</v>
       </c>
       <c r="D22" t="n">
-        <v>49.89789237272067</v>
+        <v>49.89789237272069</v>
       </c>
       <c r="E22" t="n">
-        <v>49.89789237272067</v>
+        <v>49.89789237272069</v>
       </c>
       <c r="F22" t="n">
-        <v>49.89789237272067</v>
+        <v>49.89789237272069</v>
       </c>
       <c r="G22" t="n">
-        <v>49.89789237272067</v>
+        <v>49.89789237272069</v>
       </c>
       <c r="H22" t="n">
-        <v>49.89789237272067</v>
+        <v>49.89789237272069</v>
       </c>
       <c r="I22" t="n">
-        <v>49.89789237272067</v>
+        <v>49.89789237272069</v>
       </c>
       <c r="J22" t="n">
-        <v>49.89789237272067</v>
+        <v>49.89789237272069</v>
       </c>
       <c r="K22" t="n">
-        <v>101.0747737602056</v>
+        <v>101.0747737602057</v>
       </c>
       <c r="L22" t="n">
-        <v>224.1688509566334</v>
+        <v>224.1688509566335</v>
       </c>
       <c r="M22" t="n">
-        <v>365.871743350551</v>
+        <v>365.8717433505511</v>
       </c>
       <c r="N22" t="n">
-        <v>507.4397151541382</v>
+        <v>507.4397151541383</v>
       </c>
       <c r="O22" t="n">
         <v>627.2820972334665</v>
@@ -5932,28 +5932,28 @@
         <v>708.5437825441054</v>
       </c>
       <c r="R22" t="n">
-        <v>708.5437825441054</v>
+        <v>598.6483182217485</v>
       </c>
       <c r="S22" t="n">
-        <v>668.2366944018617</v>
+        <v>558.3412300795045</v>
       </c>
       <c r="T22" t="n">
-        <v>606.4303708547784</v>
+        <v>496.534906532421</v>
       </c>
       <c r="U22" t="n">
-        <v>489.9617998235422</v>
+        <v>380.0663355011847</v>
       </c>
       <c r="V22" t="n">
-        <v>399.9397462604533</v>
+        <v>290.0442819380955</v>
       </c>
       <c r="W22" t="n">
-        <v>284.4965956563408</v>
+        <v>174.6011313339829</v>
       </c>
       <c r="X22" t="n">
-        <v>223.957382430205</v>
+        <v>114.0619181078469</v>
       </c>
       <c r="Y22" t="n">
-        <v>62.74001017861207</v>
+        <v>62.74001017861227</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1334.370887828037</v>
+        <v>1334.37088782804</v>
       </c>
       <c r="C23" t="n">
-        <v>1123.150380039332</v>
+        <v>1123.150380039335</v>
       </c>
       <c r="D23" t="n">
-        <v>921.0396661450443</v>
+        <v>921.0396661450472</v>
       </c>
       <c r="E23" t="n">
-        <v>696.9671971296395</v>
+        <v>696.9671971296424</v>
       </c>
       <c r="F23" t="n">
-        <v>453.5292573182983</v>
+        <v>453.5292573183009</v>
       </c>
       <c r="G23" t="n">
-        <v>208.4825576119181</v>
+        <v>208.4825576119184</v>
       </c>
       <c r="H23" t="n">
-        <v>49.89789237272061</v>
+        <v>49.89789237272069</v>
       </c>
       <c r="I23" t="n">
-        <v>49.89789237271845</v>
+        <v>49.89789237272069</v>
       </c>
       <c r="J23" t="n">
-        <v>150.5149863050004</v>
+        <v>150.5149863050026</v>
       </c>
       <c r="K23" t="n">
-        <v>433.547145695654</v>
+        <v>433.5471456956562</v>
       </c>
       <c r="L23" t="n">
-        <v>834.6435737344323</v>
+        <v>834.6435737344345</v>
       </c>
       <c r="M23" t="n">
-        <v>1287.090291296311</v>
+        <v>1287.090291296314</v>
       </c>
       <c r="N23" t="n">
-        <v>1725.587241372584</v>
+        <v>1725.587241372586</v>
       </c>
       <c r="O23" t="n">
-        <v>2087.404487698323</v>
+        <v>2087.404487698328</v>
       </c>
       <c r="P23" t="n">
-        <v>2364.049676638446</v>
+        <v>2364.04967663845</v>
       </c>
       <c r="Q23" t="n">
-        <v>2494.89461863603</v>
+        <v>2494.894618636034</v>
       </c>
       <c r="R23" t="n">
-        <v>2494.89461863603</v>
+        <v>2494.894618636034</v>
       </c>
       <c r="S23" t="n">
-        <v>2486.218613604855</v>
+        <v>2486.218613604859</v>
       </c>
       <c r="T23" t="n">
-        <v>2434.078935633382</v>
+        <v>2434.078935633386</v>
       </c>
       <c r="U23" t="n">
-        <v>2349.93437310274</v>
+        <v>2349.934373102744</v>
       </c>
       <c r="V23" t="n">
-        <v>2183.66834987717</v>
+        <v>2183.668349877174</v>
       </c>
       <c r="W23" t="n">
-        <v>1991.846670613259</v>
+        <v>1991.846670613263</v>
       </c>
       <c r="X23" t="n">
-        <v>1780.529781013241</v>
+        <v>1780.529781013244</v>
       </c>
       <c r="Y23" t="n">
-        <v>1557.701176467567</v>
+        <v>1557.701176467571</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>920.9111098792486</v>
+        <v>871.1637284793867</v>
       </c>
       <c r="C24" t="n">
-        <v>759.2074371202033</v>
+        <v>709.4600557203414</v>
       </c>
       <c r="D24" t="n">
-        <v>620.3688001104153</v>
+        <v>570.6214187105535</v>
       </c>
       <c r="E24" t="n">
-        <v>473.3407901672865</v>
+        <v>423.5934087674247</v>
       </c>
       <c r="F24" t="n">
-        <v>338.6469921171608</v>
+        <v>288.8996107172991</v>
       </c>
       <c r="G24" t="n">
-        <v>210.1025676076611</v>
+        <v>160.3551862077994</v>
       </c>
       <c r="H24" t="n">
-        <v>111.9424916403637</v>
+        <v>62.19511024050196</v>
       </c>
       <c r="I24" t="n">
-        <v>49.89789237272061</v>
+        <v>49.89789237272069</v>
       </c>
       <c r="J24" t="n">
         <v>127.1970510263183</v>
       </c>
       <c r="K24" t="n">
-        <v>385.8202441900136</v>
+        <v>385.8202441900137</v>
       </c>
       <c r="L24" t="n">
-        <v>453.488470724443</v>
+        <v>453.4884707244471</v>
       </c>
       <c r="M24" t="n">
-        <v>984.2342029636419</v>
+        <v>984.234202963646</v>
       </c>
       <c r="N24" t="n">
-        <v>1542.422098459264</v>
+        <v>1542.422098459268</v>
       </c>
       <c r="O24" t="n">
-        <v>1977.546740413756</v>
+        <v>1977.54674041376</v>
       </c>
       <c r="P24" t="n">
-        <v>2314.093508661272</v>
+        <v>2314.093508661276</v>
       </c>
       <c r="Q24" t="n">
-        <v>2494.89461863603</v>
+        <v>2494.894618636034</v>
       </c>
       <c r="R24" t="n">
-        <v>2446.53917566916</v>
+        <v>2446.539175669164</v>
       </c>
       <c r="S24" t="n">
-        <v>2297.158809750578</v>
+        <v>2297.158809750582</v>
       </c>
       <c r="T24" t="n">
-        <v>2158.963040625075</v>
+        <v>2109.215659225214</v>
       </c>
       <c r="U24" t="n">
-        <v>1940.480358451492</v>
+        <v>1890.73297705163</v>
       </c>
       <c r="V24" t="n">
-        <v>1712.084735899826</v>
+        <v>1662.337354499964</v>
       </c>
       <c r="W24" t="n">
-        <v>1470.768867133136</v>
+        <v>1421.021485733274</v>
       </c>
       <c r="X24" t="n">
-        <v>1272.851879010931</v>
+        <v>1223.104497611069</v>
       </c>
       <c r="Y24" t="n">
-        <v>1080.33055266051</v>
+        <v>1030.583171260648</v>
       </c>
     </row>
     <row r="25">
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.89789237272061</v>
+        <v>49.89789237272069</v>
       </c>
       <c r="C25" t="n">
-        <v>49.89789237272061</v>
+        <v>49.89789237272069</v>
       </c>
       <c r="D25" t="n">
-        <v>49.89789237272061</v>
+        <v>49.89789237272069</v>
       </c>
       <c r="E25" t="n">
-        <v>49.89789237272061</v>
+        <v>49.89789237272069</v>
       </c>
       <c r="F25" t="n">
-        <v>49.89789237272061</v>
+        <v>49.89789237272069</v>
       </c>
       <c r="G25" t="n">
-        <v>49.89789237272061</v>
+        <v>49.89789237272069</v>
       </c>
       <c r="H25" t="n">
-        <v>49.89789237272061</v>
+        <v>49.89789237272069</v>
       </c>
       <c r="I25" t="n">
-        <v>49.89789237272061</v>
+        <v>49.89789237272069</v>
       </c>
       <c r="J25" t="n">
-        <v>49.89789237272061</v>
+        <v>49.89789237272069</v>
       </c>
       <c r="K25" t="n">
-        <v>101.0747737602056</v>
+        <v>101.0747737602057</v>
       </c>
       <c r="L25" t="n">
-        <v>224.1688509566334</v>
+        <v>224.1688509566335</v>
       </c>
       <c r="M25" t="n">
-        <v>365.871743350551</v>
+        <v>365.8717433505511</v>
       </c>
       <c r="N25" t="n">
-        <v>507.4397151541382</v>
+        <v>507.4397151541383</v>
       </c>
       <c r="O25" t="n">
         <v>627.2820972334665</v>
@@ -6169,28 +6169,28 @@
         <v>708.5437825441054</v>
       </c>
       <c r="R25" t="n">
-        <v>708.5437825441054</v>
+        <v>598.6483182217485</v>
       </c>
       <c r="S25" t="n">
-        <v>558.3412300795032</v>
+        <v>558.3412300795045</v>
       </c>
       <c r="T25" t="n">
-        <v>496.5349065324199</v>
+        <v>496.534906532421</v>
       </c>
       <c r="U25" t="n">
-        <v>380.0663355011837</v>
+        <v>380.0663355011847</v>
       </c>
       <c r="V25" t="n">
-        <v>290.0442819380948</v>
+        <v>290.0442819380955</v>
       </c>
       <c r="W25" t="n">
-        <v>174.6011313339823</v>
+        <v>174.6011313339829</v>
       </c>
       <c r="X25" t="n">
-        <v>114.0619181078465</v>
+        <v>114.0619181078469</v>
       </c>
       <c r="Y25" t="n">
-        <v>62.74001017861201</v>
+        <v>62.74001017861227</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1783.021241684689</v>
+        <v>1728.860102190982</v>
       </c>
       <c r="C26" t="n">
-        <v>1508.683405957309</v>
+        <v>1454.522266463601</v>
       </c>
       <c r="D26" t="n">
-        <v>1243.455364124344</v>
+        <v>1189.294224630637</v>
       </c>
       <c r="E26" t="n">
-        <v>956.2655671702635</v>
+        <v>902.1044276765559</v>
       </c>
       <c r="F26" t="n">
-        <v>649.7102994202461</v>
+        <v>649.7102994202453</v>
       </c>
       <c r="G26" t="n">
-        <v>341.5462717751884</v>
+        <v>341.5462717751883</v>
       </c>
       <c r="H26" t="n">
         <v>119.8442785973147</v>
       </c>
       <c r="I26" t="n">
-        <v>67.88644913016773</v>
+        <v>67.88644913016772</v>
       </c>
       <c r="J26" t="n">
-        <v>273.9583071357596</v>
+        <v>273.9583071357598</v>
       </c>
       <c r="K26" t="n">
-        <v>662.4452305997232</v>
+        <v>662.4452305997233</v>
       </c>
       <c r="L26" t="n">
         <v>1168.996422711811</v>
@@ -6245,31 +6245,31 @@
         <v>3120.221581909065</v>
       </c>
       <c r="Q26" t="n">
-        <v>3356.52128797996</v>
+        <v>3356.521287979959</v>
       </c>
       <c r="R26" t="n">
         <v>3394.322456508386</v>
       </c>
       <c r="S26" t="n">
-        <v>3376.690263032242</v>
+        <v>3322.529123538535</v>
       </c>
       <c r="T26" t="n">
-        <v>3261.433257122092</v>
+        <v>3207.272117628385</v>
       </c>
       <c r="U26" t="n">
-        <v>3114.171366652773</v>
+        <v>3060.010227159066</v>
       </c>
       <c r="V26" t="n">
-        <v>2884.788015488527</v>
+        <v>2830.626875994819</v>
       </c>
       <c r="W26" t="n">
-        <v>2629.84900828594</v>
+        <v>2575.687868792233</v>
       </c>
       <c r="X26" t="n">
-        <v>2355.414790747246</v>
+        <v>2301.253651253538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2069.468858262896</v>
+        <v>2015.307718769189</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>129.9310483978108</v>
       </c>
       <c r="I27" t="n">
-        <v>67.88644913016773</v>
+        <v>67.88644913016772</v>
       </c>
       <c r="J27" t="n">
-        <v>67.88644913016773</v>
+        <v>67.88644913016772</v>
       </c>
       <c r="K27" t="n">
-        <v>326.5096422938631</v>
+        <v>326.509642293863</v>
       </c>
       <c r="L27" t="n">
-        <v>731.5039179465438</v>
+        <v>731.5039179465437</v>
       </c>
       <c r="M27" t="n">
-        <v>1262.249650185743</v>
+        <v>1051.970141120955</v>
       </c>
       <c r="N27" t="n">
-        <v>1820.437545681365</v>
+        <v>1610.158036616577</v>
       </c>
       <c r="O27" t="n">
-        <v>2255.562187635856</v>
+        <v>2045.282678571068</v>
       </c>
       <c r="P27" t="n">
-        <v>2562.630556793343</v>
+        <v>2381.829446818585</v>
       </c>
       <c r="Q27" t="n">
         <v>2562.630556793343</v>
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>408.2206629305397</v>
+        <v>408.2206629305396</v>
       </c>
       <c r="C28" t="n">
-        <v>346.2006163320322</v>
+        <v>346.200616332032</v>
       </c>
       <c r="D28" t="n">
-        <v>300.7246460996071</v>
+        <v>300.724646099607</v>
       </c>
       <c r="E28" t="n">
         <v>256.3115548007381</v>
       </c>
       <c r="F28" t="n">
-        <v>211.4268227663275</v>
+        <v>211.4268227663274</v>
       </c>
       <c r="G28" t="n">
-        <v>150.2573197622076</v>
+        <v>150.2573197622075</v>
       </c>
       <c r="H28" t="n">
-        <v>99.85266647290427</v>
+        <v>99.8526664729041</v>
       </c>
       <c r="I28" t="n">
-        <v>67.88644913016773</v>
+        <v>67.88644913016772</v>
       </c>
       <c r="J28" t="n">
-        <v>125.1726065027838</v>
+        <v>125.1726065027837</v>
       </c>
       <c r="K28" t="n">
-        <v>281.8042519635787</v>
+        <v>281.8042519635786</v>
       </c>
       <c r="L28" t="n">
-        <v>510.3530932333165</v>
+        <v>510.3530932333164</v>
       </c>
       <c r="M28" t="n">
-        <v>757.5107497005442</v>
+        <v>757.510749700544</v>
       </c>
       <c r="N28" t="n">
         <v>1004.533485577441</v>
       </c>
       <c r="O28" t="n">
-        <v>1229.83063173008</v>
+        <v>1229.830631730079</v>
       </c>
       <c r="P28" t="n">
-        <v>1416.547081114029</v>
+        <v>1416.547081114028</v>
       </c>
       <c r="Q28" t="n">
         <v>1496.896661499094</v>
@@ -6421,13 +6421,13 @@
         <v>900.8363642506185</v>
       </c>
       <c r="W28" t="n">
-        <v>722.27588570783</v>
+        <v>722.2758857078298</v>
       </c>
       <c r="X28" t="n">
-        <v>598.619344543018</v>
+        <v>598.6193445430179</v>
       </c>
       <c r="Y28" t="n">
-        <v>484.1801086751073</v>
+        <v>484.1801086751072</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6437,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1783.021241684689</v>
+        <v>1728.860102190982</v>
       </c>
       <c r="C29" t="n">
-        <v>1508.683405957308</v>
+        <v>1454.522266463602</v>
       </c>
       <c r="D29" t="n">
-        <v>1243.455364124344</v>
+        <v>1189.294224630637</v>
       </c>
       <c r="E29" t="n">
-        <v>956.2655671702631</v>
+        <v>902.1044276765565</v>
       </c>
       <c r="F29" t="n">
-        <v>649.7102994202456</v>
+        <v>649.7102994202454</v>
       </c>
       <c r="G29" t="n">
-        <v>341.5462717751885</v>
+        <v>341.5462717751884</v>
       </c>
       <c r="H29" t="n">
         <v>119.8442785973147</v>
       </c>
       <c r="I29" t="n">
-        <v>67.88644913016773</v>
+        <v>67.88644913016772</v>
       </c>
       <c r="J29" t="n">
-        <v>273.9583071357605</v>
+        <v>273.9583071357596</v>
       </c>
       <c r="K29" t="n">
-        <v>662.4452305997243</v>
+        <v>662.4452305997231</v>
       </c>
       <c r="L29" t="n">
-        <v>1168.996422711813</v>
+        <v>1168.996422711811</v>
       </c>
       <c r="M29" t="n">
-        <v>1726.897904347001</v>
+        <v>1726.897904347</v>
       </c>
       <c r="N29" t="n">
-        <v>2270.849618496583</v>
+        <v>2270.849618496582</v>
       </c>
       <c r="O29" t="n">
         <v>2738.121628895633</v>
       </c>
       <c r="P29" t="n">
-        <v>3120.221581909066</v>
+        <v>3120.221581909065</v>
       </c>
       <c r="Q29" t="n">
-        <v>3356.52128797996</v>
+        <v>3356.521287979959</v>
       </c>
       <c r="R29" t="n">
         <v>3394.322456508386</v>
@@ -6537,19 +6537,19 @@
         <v>129.9310483978108</v>
       </c>
       <c r="I30" t="n">
-        <v>67.88644913016773</v>
+        <v>67.88644913016772</v>
       </c>
       <c r="J30" t="n">
-        <v>145.1856077837654</v>
+        <v>67.88644913016772</v>
       </c>
       <c r="K30" t="n">
-        <v>403.8088009474607</v>
+        <v>116.2301332290753</v>
       </c>
       <c r="L30" t="n">
-        <v>808.8030766001414</v>
+        <v>521.2244088817559</v>
       </c>
       <c r="M30" t="n">
-        <v>1339.54880883934</v>
+        <v>1051.970141120955</v>
       </c>
       <c r="N30" t="n">
         <v>1610.158036616577</v>
@@ -6595,58 +6595,58 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>408.2206629305397</v>
+        <v>408.2206629305394</v>
       </c>
       <c r="C31" t="n">
-        <v>346.2006163320322</v>
+        <v>346.2006163320319</v>
       </c>
       <c r="D31" t="n">
-        <v>300.7246460996071</v>
+        <v>300.7246460996069</v>
       </c>
       <c r="E31" t="n">
-        <v>256.3115548007381</v>
+        <v>256.311554800738</v>
       </c>
       <c r="F31" t="n">
-        <v>211.4268227663274</v>
+        <v>211.4268227663273</v>
       </c>
       <c r="G31" t="n">
         <v>150.2573197622075</v>
       </c>
       <c r="H31" t="n">
-        <v>99.85266647290416</v>
+        <v>99.85266647290412</v>
       </c>
       <c r="I31" t="n">
-        <v>67.88644913016773</v>
+        <v>67.88644913016772</v>
       </c>
       <c r="J31" t="n">
-        <v>125.1726065027837</v>
+        <v>125.1726065027836</v>
       </c>
       <c r="K31" t="n">
-        <v>281.8042519635798</v>
+        <v>281.8042519635785</v>
       </c>
       <c r="L31" t="n">
-        <v>510.3530932333175</v>
+        <v>510.3530932333163</v>
       </c>
       <c r="M31" t="n">
-        <v>757.510749700545</v>
+        <v>757.5107497005438</v>
       </c>
       <c r="N31" t="n">
-        <v>1004.533485577442</v>
+        <v>1004.533485577441</v>
       </c>
       <c r="O31" t="n">
-        <v>1229.83063173008</v>
+        <v>1229.830631730079</v>
       </c>
       <c r="P31" t="n">
-        <v>1416.547081114029</v>
+        <v>1416.547081114028</v>
       </c>
       <c r="Q31" t="n">
-        <v>1496.896661499095</v>
+        <v>1496.896661499094</v>
       </c>
       <c r="R31" t="n">
-        <v>1461.909712288976</v>
+        <v>1461.909712288975</v>
       </c>
       <c r="S31" t="n">
-        <v>1358.485296208056</v>
+        <v>1358.485296208055</v>
       </c>
       <c r="T31" t="n">
         <v>1233.561644722296</v>
@@ -6655,16 +6655,16 @@
         <v>1053.975745752384</v>
       </c>
       <c r="V31" t="n">
-        <v>900.8363642506189</v>
+        <v>900.8363642506184</v>
       </c>
       <c r="W31" t="n">
-        <v>722.2758857078302</v>
+        <v>722.2758857078297</v>
       </c>
       <c r="X31" t="n">
-        <v>598.6193445430181</v>
+        <v>598.6193445430177</v>
       </c>
       <c r="Y31" t="n">
-        <v>484.1801086751073</v>
+        <v>484.1801086751071</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1356.706446823896</v>
+        <v>1356.706446823895</v>
       </c>
       <c r="C32" t="n">
-        <v>1141.932554649487</v>
+        <v>1141.932554649486</v>
       </c>
       <c r="D32" t="n">
-        <v>936.2684563694945</v>
+        <v>936.2684563694932</v>
       </c>
       <c r="E32" t="n">
-        <v>708.6426029683851</v>
+        <v>708.6426029683837</v>
       </c>
       <c r="F32" t="n">
-        <v>461.6512787713391</v>
+        <v>461.6512787713377</v>
       </c>
       <c r="G32" t="n">
-        <v>213.0511946792527</v>
+        <v>213.0511946792528</v>
       </c>
       <c r="H32" t="n">
         <v>50.91314505435054</v>
@@ -6713,13 +6713,13 @@
         <v>1726.602494054216</v>
       </c>
       <c r="O32" t="n">
-        <v>2088.419740379956</v>
+        <v>2138.16712177982</v>
       </c>
       <c r="P32" t="n">
-        <v>2365.064929320078</v>
+        <v>2414.812310719943</v>
       </c>
       <c r="Q32" t="n">
-        <v>2495.909871317663</v>
+        <v>2545.657252717527</v>
       </c>
       <c r="R32" t="n">
         <v>2545.657252717527</v>
@@ -6731,19 +6731,19 @@
         <v>2477.734800943469</v>
       </c>
       <c r="U32" t="n">
-        <v>2390.036854027123</v>
+        <v>2390.036854027122</v>
       </c>
       <c r="V32" t="n">
-        <v>2220.217446415848</v>
+        <v>2220.217446415847</v>
       </c>
       <c r="W32" t="n">
-        <v>2024.842382766233</v>
+        <v>2024.842382766232</v>
       </c>
       <c r="X32" t="n">
-        <v>1809.97210878051</v>
+        <v>1809.972108780509</v>
       </c>
       <c r="Y32" t="n">
-        <v>1583.590119849131</v>
+        <v>1583.59011984913</v>
       </c>
     </row>
     <row r="33">
@@ -6777,19 +6777,19 @@
         <v>50.91314505435054</v>
       </c>
       <c r="J33" t="n">
-        <v>128.2123037079482</v>
+        <v>50.91314505435054</v>
       </c>
       <c r="K33" t="n">
-        <v>386.8354968716435</v>
+        <v>309.5363382180458</v>
       </c>
       <c r="L33" t="n">
-        <v>685.0522147806981</v>
+        <v>714.5306138707265</v>
       </c>
       <c r="M33" t="n">
-        <v>1215.797947019897</v>
+        <v>1245.276346109925</v>
       </c>
       <c r="N33" t="n">
-        <v>1773.985842515519</v>
+        <v>1803.464241605548</v>
       </c>
       <c r="O33" t="n">
         <v>2209.110484470011</v>
@@ -6801,10 +6801,10 @@
         <v>2545.657252717527</v>
       </c>
       <c r="R33" t="n">
-        <v>2497.301809750657</v>
+        <v>2497.301809750656</v>
       </c>
       <c r="S33" t="n">
-        <v>2347.921443832075</v>
+        <v>2347.921443832074</v>
       </c>
       <c r="T33" t="n">
         <v>2159.978293306705</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>54.97480755103478</v>
+        <v>54.97480755103495</v>
       </c>
       <c r="C34" t="n">
-        <v>52.51870450549882</v>
+        <v>52.51870450549891</v>
       </c>
       <c r="D34" t="n">
-        <v>52.51870450549882</v>
+        <v>52.51870450549891</v>
       </c>
       <c r="E34" t="n">
-        <v>52.51870450549882</v>
+        <v>52.51870450549891</v>
       </c>
       <c r="F34" t="n">
-        <v>52.51870450549882</v>
+        <v>52.51870450549891</v>
       </c>
       <c r="G34" t="n">
         <v>50.91314505435054</v>
@@ -6877,31 +6877,31 @@
         <v>709.5590352257353</v>
       </c>
       <c r="Q34" t="n">
-        <v>709.5590352257353</v>
+        <v>683.9441146173847</v>
       </c>
       <c r="R34" t="n">
-        <v>709.5590352257353</v>
+        <v>632.1523084856995</v>
       </c>
       <c r="S34" t="n">
-        <v>588.2918359577501</v>
+        <v>588.2918359577509</v>
       </c>
       <c r="T34" t="n">
-        <v>522.9321280249621</v>
+        <v>522.9321280249628</v>
       </c>
       <c r="U34" t="n">
-        <v>402.9101726080213</v>
+        <v>402.9101726080219</v>
       </c>
       <c r="V34" t="n">
-        <v>309.3347346592276</v>
+        <v>309.3347346592282</v>
       </c>
       <c r="W34" t="n">
-        <v>190.3381996694105</v>
+        <v>190.3381996694109</v>
       </c>
       <c r="X34" t="n">
-        <v>126.24560205757</v>
+        <v>126.2456020575704</v>
       </c>
       <c r="Y34" t="n">
-        <v>71.37030974263085</v>
+        <v>71.37030974263111</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1356.706446823896</v>
+        <v>1356.706446823895</v>
       </c>
       <c r="C35" t="n">
-        <v>1141.932554649487</v>
+        <v>1141.932554649486</v>
       </c>
       <c r="D35" t="n">
-        <v>936.2684563694941</v>
+        <v>936.2684563694933</v>
       </c>
       <c r="E35" t="n">
-        <v>708.6426029683847</v>
+        <v>708.6426029683838</v>
       </c>
       <c r="F35" t="n">
-        <v>461.6512787713386</v>
+        <v>461.6512787713377</v>
       </c>
       <c r="G35" t="n">
         <v>213.0511946792528</v>
@@ -6932,28 +6932,28 @@
         <v>50.91314505435054</v>
       </c>
       <c r="I35" t="n">
-        <v>58.36789746986714</v>
+        <v>50.91314505435054</v>
       </c>
       <c r="J35" t="n">
-        <v>158.9849914021491</v>
+        <v>151.5302389866325</v>
       </c>
       <c r="K35" t="n">
-        <v>484.3097797771508</v>
+        <v>434.5623983772861</v>
       </c>
       <c r="L35" t="n">
-        <v>885.4062078159291</v>
+        <v>835.6588264160644</v>
       </c>
       <c r="M35" t="n">
-        <v>1337.852925377808</v>
+        <v>1288.105543977943</v>
       </c>
       <c r="N35" t="n">
-        <v>1776.34987545408</v>
+        <v>1726.602494054216</v>
       </c>
       <c r="O35" t="n">
-        <v>2138.16712177982</v>
+        <v>2088.419740379956</v>
       </c>
       <c r="P35" t="n">
-        <v>2414.812310719943</v>
+        <v>2414.812310719942</v>
       </c>
       <c r="Q35" t="n">
         <v>2545.657252717527</v>
@@ -6968,19 +6968,19 @@
         <v>2477.734800943469</v>
       </c>
       <c r="U35" t="n">
-        <v>2390.036854027123</v>
+        <v>2390.036854027122</v>
       </c>
       <c r="V35" t="n">
-        <v>2220.217446415848</v>
+        <v>2220.217446415847</v>
       </c>
       <c r="W35" t="n">
-        <v>2024.842382766233</v>
+        <v>2024.842382766232</v>
       </c>
       <c r="X35" t="n">
-        <v>1809.97210878051</v>
+        <v>1809.972108780509</v>
       </c>
       <c r="Y35" t="n">
-        <v>1583.590119849131</v>
+        <v>1583.59011984913</v>
       </c>
     </row>
     <row r="36">
@@ -7005,7 +7005,7 @@
         <v>339.6622447987907</v>
       </c>
       <c r="G36" t="n">
-        <v>211.1178202892911</v>
+        <v>211.117820289291</v>
       </c>
       <c r="H36" t="n">
         <v>112.9577443219936</v>
@@ -7017,28 +7017,28 @@
         <v>50.91314505435054</v>
       </c>
       <c r="K36" t="n">
-        <v>309.5363382180458</v>
+        <v>99.25682915325882</v>
       </c>
       <c r="L36" t="n">
-        <v>714.5306138707265</v>
+        <v>504.2511048059395</v>
       </c>
       <c r="M36" t="n">
-        <v>1245.276346109925</v>
+        <v>1034.996837045138</v>
       </c>
       <c r="N36" t="n">
-        <v>1773.985842515519</v>
+        <v>1593.18473254076</v>
       </c>
       <c r="O36" t="n">
-        <v>2209.110484470011</v>
+        <v>2028.309374495252</v>
       </c>
       <c r="P36" t="n">
-        <v>2545.657252717527</v>
+        <v>2364.856142742768</v>
       </c>
       <c r="Q36" t="n">
         <v>2545.657252717527</v>
       </c>
       <c r="R36" t="n">
-        <v>2497.301809750657</v>
+        <v>2497.301809750656</v>
       </c>
       <c r="S36" t="n">
         <v>2347.921443832075</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.97480755103495</v>
+        <v>54.97480755103489</v>
       </c>
       <c r="C37" t="n">
-        <v>52.51870450549891</v>
+        <v>52.51870450549887</v>
       </c>
       <c r="D37" t="n">
-        <v>52.51870450549891</v>
+        <v>52.51870450549887</v>
       </c>
       <c r="E37" t="n">
-        <v>52.51870450549891</v>
+        <v>52.51870450549887</v>
       </c>
       <c r="F37" t="n">
-        <v>52.51870450549891</v>
+        <v>52.51870450549887</v>
       </c>
       <c r="G37" t="n">
         <v>50.91314505435054</v>
@@ -7120,25 +7120,25 @@
         <v>709.5590352257353</v>
       </c>
       <c r="S37" t="n">
-        <v>588.2918359577509</v>
+        <v>665.6985626977869</v>
       </c>
       <c r="T37" t="n">
-        <v>522.9321280249628</v>
+        <v>600.3388547649989</v>
       </c>
       <c r="U37" t="n">
-        <v>402.9101726080219</v>
+        <v>480.316899348058</v>
       </c>
       <c r="V37" t="n">
-        <v>309.3347346592282</v>
+        <v>386.7414613992643</v>
       </c>
       <c r="W37" t="n">
-        <v>190.3381996694109</v>
+        <v>267.7449264094471</v>
       </c>
       <c r="X37" t="n">
-        <v>126.2456020575704</v>
+        <v>203.6523287976066</v>
       </c>
       <c r="Y37" t="n">
-        <v>71.37030974263111</v>
+        <v>71.37030974263102</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1356.706446823895</v>
+        <v>1356.706446823896</v>
       </c>
       <c r="C38" t="n">
-        <v>1141.932554649486</v>
+        <v>1141.932554649487</v>
       </c>
       <c r="D38" t="n">
-        <v>936.2684563694932</v>
+        <v>936.2684563694943</v>
       </c>
       <c r="E38" t="n">
-        <v>708.6426029683837</v>
+        <v>708.6426029683848</v>
       </c>
       <c r="F38" t="n">
-        <v>461.6512787713377</v>
+        <v>461.6512787713389</v>
       </c>
       <c r="G38" t="n">
         <v>213.0511946792528</v>
@@ -7169,55 +7169,55 @@
         <v>50.91314505435054</v>
       </c>
       <c r="I38" t="n">
-        <v>58.36789746986714</v>
+        <v>50.91314505435054</v>
       </c>
       <c r="J38" t="n">
-        <v>158.9849914021491</v>
+        <v>151.5302389866325</v>
       </c>
       <c r="K38" t="n">
-        <v>442.0171507928027</v>
+        <v>434.5623983772861</v>
       </c>
       <c r="L38" t="n">
-        <v>843.113578831581</v>
+        <v>835.6588264160644</v>
       </c>
       <c r="M38" t="n">
-        <v>1295.56029639346</v>
+        <v>1288.105543977943</v>
       </c>
       <c r="N38" t="n">
-        <v>1734.057246469732</v>
+        <v>1776.34987545408</v>
       </c>
       <c r="O38" t="n">
-        <v>2095.874492795472</v>
+        <v>2138.16712177982</v>
       </c>
       <c r="P38" t="n">
-        <v>2372.519681735595</v>
+        <v>2414.812310719943</v>
       </c>
       <c r="Q38" t="n">
-        <v>2503.364623733179</v>
+        <v>2545.657252717527</v>
       </c>
       <c r="R38" t="n">
         <v>2545.657252717527</v>
       </c>
       <c r="S38" t="n">
-        <v>2533.427863300647</v>
+        <v>2533.427863300648</v>
       </c>
       <c r="T38" t="n">
-        <v>2477.734800943469</v>
+        <v>2477.73480094347</v>
       </c>
       <c r="U38" t="n">
-        <v>2390.036854027122</v>
+        <v>2390.036854027123</v>
       </c>
       <c r="V38" t="n">
-        <v>2220.217446415847</v>
+        <v>2220.217446415848</v>
       </c>
       <c r="W38" t="n">
-        <v>2024.842382766232</v>
+        <v>2024.842382766233</v>
       </c>
       <c r="X38" t="n">
-        <v>1809.972108780509</v>
+        <v>1809.97210878051</v>
       </c>
       <c r="Y38" t="n">
-        <v>1583.59011984913</v>
+        <v>1583.590119849131</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>921.9263625608794</v>
+        <v>921.9263625608781</v>
       </c>
       <c r="C39" t="n">
-        <v>760.2226898018341</v>
+        <v>760.222689801833</v>
       </c>
       <c r="D39" t="n">
-        <v>621.3840527920462</v>
+        <v>621.3840527920452</v>
       </c>
       <c r="E39" t="n">
-        <v>474.3560428489174</v>
+        <v>474.3560428489163</v>
       </c>
       <c r="F39" t="n">
-        <v>339.6622447987918</v>
+        <v>339.6622447987907</v>
       </c>
       <c r="G39" t="n">
-        <v>211.117820289291</v>
+        <v>211.1178202892911</v>
       </c>
       <c r="H39" t="n">
         <v>112.9577443219936</v>
@@ -7251,16 +7251,16 @@
         <v>50.91314505435054</v>
       </c>
       <c r="J39" t="n">
-        <v>50.91314505435054</v>
+        <v>128.2123037079482</v>
       </c>
       <c r="K39" t="n">
-        <v>99.25682915325928</v>
+        <v>386.8354968716435</v>
       </c>
       <c r="L39" t="n">
-        <v>504.2511048059399</v>
+        <v>791.8297725243242</v>
       </c>
       <c r="M39" t="n">
-        <v>1034.996837045139</v>
+        <v>1322.575504763523</v>
       </c>
       <c r="N39" t="n">
         <v>1593.184732540761</v>
@@ -7275,28 +7275,28 @@
         <v>2545.657252717527</v>
       </c>
       <c r="R39" t="n">
-        <v>2497.301809750657</v>
+        <v>2497.301809750656</v>
       </c>
       <c r="S39" t="n">
         <v>2347.921443832075</v>
       </c>
       <c r="T39" t="n">
-        <v>2159.978293306706</v>
+        <v>2159.978293306705</v>
       </c>
       <c r="U39" t="n">
-        <v>1941.495611133123</v>
+        <v>1941.495611133122</v>
       </c>
       <c r="V39" t="n">
-        <v>1713.099988581457</v>
+        <v>1713.099988581456</v>
       </c>
       <c r="W39" t="n">
-        <v>1471.784119814767</v>
+        <v>1471.784119814766</v>
       </c>
       <c r="X39" t="n">
-        <v>1273.867131692561</v>
+        <v>1273.86713169256</v>
       </c>
       <c r="Y39" t="n">
-        <v>1081.34580534214</v>
+        <v>1081.345805342139</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.3815342910709</v>
+        <v>54.97480755103489</v>
       </c>
       <c r="C40" t="n">
-        <v>129.9254312455349</v>
+        <v>52.51870450549888</v>
       </c>
       <c r="D40" t="n">
-        <v>129.9254312455349</v>
+        <v>52.51870450549888</v>
       </c>
       <c r="E40" t="n">
-        <v>129.9254312455349</v>
+        <v>52.51870450549888</v>
       </c>
       <c r="F40" t="n">
-        <v>129.9254312455349</v>
+        <v>52.51870450549888</v>
       </c>
       <c r="G40" t="n">
-        <v>128.3198717943865</v>
+        <v>50.91314505435054</v>
       </c>
       <c r="H40" t="n">
         <v>50.91314505435054</v>
@@ -7351,31 +7351,31 @@
         <v>709.5590352257353</v>
       </c>
       <c r="Q40" t="n">
-        <v>709.5590352257353</v>
+        <v>683.9441146173847</v>
       </c>
       <c r="R40" t="n">
-        <v>709.5590352257353</v>
+        <v>683.9441146173847</v>
       </c>
       <c r="S40" t="n">
-        <v>665.6985626977869</v>
+        <v>640.0836420894362</v>
       </c>
       <c r="T40" t="n">
-        <v>600.3388547649988</v>
+        <v>522.9321280249626</v>
       </c>
       <c r="U40" t="n">
-        <v>480.3168993480579</v>
+        <v>402.9101726080217</v>
       </c>
       <c r="V40" t="n">
-        <v>386.7414613992642</v>
+        <v>309.334734659228</v>
       </c>
       <c r="W40" t="n">
-        <v>267.7449264094469</v>
+        <v>190.3381996694108</v>
       </c>
       <c r="X40" t="n">
-        <v>203.6523287976063</v>
+        <v>126.2456020575702</v>
       </c>
       <c r="Y40" t="n">
-        <v>148.7770364826671</v>
+        <v>71.37030974263102</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1387.002990445246</v>
+        <v>1197.251745121122</v>
       </c>
       <c r="C41" t="n">
-        <v>1152.29726055799</v>
+        <v>962.5460152338662</v>
       </c>
       <c r="D41" t="n">
-        <v>926.7013245651513</v>
+        <v>833.9259198831318</v>
       </c>
       <c r="E41" t="n">
-        <v>679.1436334511959</v>
+        <v>586.3682287691756</v>
       </c>
       <c r="F41" t="n">
-        <v>513.8406778240529</v>
+        <v>319.4450668592829</v>
       </c>
       <c r="G41" t="n">
-        <v>245.3087560191209</v>
+        <v>50.91314505435054</v>
       </c>
       <c r="H41" t="n">
-        <v>63.23886868137236</v>
+        <v>50.91314505435054</v>
       </c>
       <c r="I41" t="n">
         <v>50.91314505435054</v>
@@ -7430,7 +7430,7 @@
         <v>2365.064929320078</v>
       </c>
       <c r="Q41" t="n">
-        <v>2495.909871317663</v>
+        <v>2545.657252717527</v>
       </c>
       <c r="R41" t="n">
         <v>2545.657252717527</v>
@@ -7442,19 +7442,19 @@
         <v>2437.871125517776</v>
       </c>
       <c r="U41" t="n">
-        <v>2330.241340888583</v>
+        <v>2330.241340888582</v>
       </c>
       <c r="V41" t="n">
-        <v>2330.241340888583</v>
+        <v>2140.490095564461</v>
       </c>
       <c r="W41" t="n">
-        <v>2114.934439526121</v>
+        <v>1925.183194201999</v>
       </c>
       <c r="X41" t="n">
-        <v>1880.132327827552</v>
+        <v>1690.381082503429</v>
       </c>
       <c r="Y41" t="n">
-        <v>1633.818501183327</v>
+        <v>1444.067255859204</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>921.9263625608781</v>
+        <v>921.9263625608794</v>
       </c>
       <c r="C42" t="n">
-        <v>760.222689801833</v>
+        <v>760.2226898018341</v>
       </c>
       <c r="D42" t="n">
-        <v>621.3840527920452</v>
+        <v>621.3840527920462</v>
       </c>
       <c r="E42" t="n">
-        <v>474.3560428489163</v>
+        <v>474.3560428489174</v>
       </c>
       <c r="F42" t="n">
-        <v>339.6622447987907</v>
+        <v>339.6622447987918</v>
       </c>
       <c r="G42" t="n">
-        <v>211.1178202892911</v>
+        <v>211.1178202892921</v>
       </c>
       <c r="H42" t="n">
-        <v>112.9577443219936</v>
+        <v>112.9577443219947</v>
       </c>
       <c r="I42" t="n">
         <v>50.91314505435054</v>
       </c>
       <c r="J42" t="n">
-        <v>50.91314505435054</v>
+        <v>128.2123037079482</v>
       </c>
       <c r="K42" t="n">
-        <v>280.0579391280175</v>
+        <v>128.2123037079482</v>
       </c>
       <c r="L42" t="n">
-        <v>685.0522147806981</v>
+        <v>533.2065793606289</v>
       </c>
       <c r="M42" t="n">
-        <v>1215.797947019897</v>
+        <v>1063.952311599828</v>
       </c>
       <c r="N42" t="n">
-        <v>1773.985842515519</v>
+        <v>1622.14020709545</v>
       </c>
       <c r="O42" t="n">
-        <v>2209.110484470011</v>
+        <v>2028.309374495252</v>
       </c>
       <c r="P42" t="n">
-        <v>2545.657252717527</v>
+        <v>2364.856142742769</v>
       </c>
       <c r="Q42" t="n">
         <v>2545.657252717527</v>
       </c>
       <c r="R42" t="n">
-        <v>2497.301809750656</v>
+        <v>2497.301809750657</v>
       </c>
       <c r="S42" t="n">
         <v>2347.921443832075</v>
       </c>
       <c r="T42" t="n">
-        <v>2159.978293306705</v>
+        <v>2159.978293306706</v>
       </c>
       <c r="U42" t="n">
-        <v>1941.495611133122</v>
+        <v>1941.495611133123</v>
       </c>
       <c r="V42" t="n">
-        <v>1713.099988581456</v>
+        <v>1713.099988581457</v>
       </c>
       <c r="W42" t="n">
-        <v>1471.784119814766</v>
+        <v>1471.784119814767</v>
       </c>
       <c r="X42" t="n">
-        <v>1273.86713169256</v>
+        <v>1273.867131692561</v>
       </c>
       <c r="Y42" t="n">
-        <v>1081.345805342139</v>
+        <v>1081.34580534214</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>121.4885064712351</v>
+        <v>121.4885064712373</v>
       </c>
       <c r="C43" t="n">
-        <v>99.10056571285273</v>
+        <v>99.10056571285459</v>
       </c>
       <c r="D43" t="n">
-        <v>93.25670132055281</v>
+        <v>93.2567013205543</v>
       </c>
       <c r="E43" t="n">
-        <v>88.47571586180899</v>
+        <v>88.47571586181012</v>
       </c>
       <c r="F43" t="n">
-        <v>83.22308966752345</v>
+        <v>83.22308966752421</v>
       </c>
       <c r="G43" t="n">
-        <v>61.68569250352877</v>
+        <v>61.68569250352915</v>
       </c>
       <c r="H43" t="n">
         <v>50.91314505435054</v>
@@ -7585,34 +7585,34 @@
         <v>628.2973499150964</v>
       </c>
       <c r="P43" t="n">
-        <v>738.9277017896977</v>
+        <v>738.9277017897035</v>
       </c>
       <c r="Q43" t="n">
-        <v>858.1207091086699</v>
+        <v>858.1207091086753</v>
       </c>
       <c r="R43" t="n">
-        <v>858.1207091086699</v>
+        <v>858.1207091086753</v>
       </c>
       <c r="S43" t="n">
-        <v>794.3283988678751</v>
+        <v>794.3283988678801</v>
       </c>
       <c r="T43" t="n">
-        <v>709.0368532222408</v>
+        <v>709.0368532222453</v>
       </c>
       <c r="U43" t="n">
-        <v>569.0830600924536</v>
+        <v>569.0830600924577</v>
       </c>
       <c r="V43" t="n">
-        <v>455.5757844308135</v>
+        <v>455.5757844308173</v>
       </c>
       <c r="W43" t="n">
-        <v>316.64741172815</v>
+        <v>316.6474117281534</v>
       </c>
       <c r="X43" t="n">
-        <v>232.6229764034631</v>
+        <v>232.6229764034661</v>
       </c>
       <c r="Y43" t="n">
-        <v>157.8158463756776</v>
+        <v>157.8158463756802</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1304.881529750317</v>
+        <v>1197.251745121122</v>
       </c>
       <c r="C44" t="n">
-        <v>1070.175799863062</v>
+        <v>962.5460152338659</v>
       </c>
       <c r="D44" t="n">
-        <v>844.5798638702227</v>
+        <v>736.9500792410265</v>
       </c>
       <c r="E44" t="n">
-        <v>597.0221727562666</v>
+        <v>489.39238812707</v>
       </c>
       <c r="F44" t="n">
-        <v>330.0990108463743</v>
+        <v>222.4692262171775</v>
       </c>
       <c r="G44" t="n">
-        <v>61.56708904144182</v>
+        <v>63.23886868137273</v>
       </c>
       <c r="H44" t="n">
-        <v>61.56708904144182</v>
+        <v>63.23886868137273</v>
       </c>
       <c r="I44" t="n">
-        <v>50.91314505435051</v>
+        <v>50.91314505435054</v>
       </c>
       <c r="J44" t="n">
-        <v>151.5302389866324</v>
+        <v>151.5302389866325</v>
       </c>
       <c r="K44" t="n">
         <v>434.5623983772861</v>
       </c>
       <c r="L44" t="n">
-        <v>835.6588264160644</v>
+        <v>885.4062078159291</v>
       </c>
       <c r="M44" t="n">
-        <v>1288.105543977943</v>
+        <v>1337.852925377808</v>
       </c>
       <c r="N44" t="n">
-        <v>1726.602494054216</v>
+        <v>1776.34987545408</v>
       </c>
       <c r="O44" t="n">
-        <v>2088.419740379956</v>
+        <v>2138.16712177982</v>
       </c>
       <c r="P44" t="n">
-        <v>2365.064929320078</v>
+        <v>2414.812310719943</v>
       </c>
       <c r="Q44" t="n">
-        <v>2495.909871317663</v>
+        <v>2545.657252717527</v>
       </c>
       <c r="R44" t="n">
-        <v>2545.657252717525</v>
+        <v>2545.657252717527</v>
       </c>
       <c r="S44" t="n">
-        <v>2513.496025587799</v>
+        <v>2513.496025587801</v>
       </c>
       <c r="T44" t="n">
-        <v>2437.871125517775</v>
+        <v>2437.871125517776</v>
       </c>
       <c r="U44" t="n">
-        <v>2437.871125517775</v>
+        <v>2330.241340888582</v>
       </c>
       <c r="V44" t="n">
-        <v>2248.119880193654</v>
+        <v>2140.490095564461</v>
       </c>
       <c r="W44" t="n">
-        <v>2032.812978831193</v>
+        <v>1925.183194201999</v>
       </c>
       <c r="X44" t="n">
-        <v>1798.010867132623</v>
+        <v>1690.381082503429</v>
       </c>
       <c r="Y44" t="n">
-        <v>1551.697040488399</v>
+        <v>1444.067255859204</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>921.9263625608784</v>
+        <v>921.9263625608794</v>
       </c>
       <c r="C45" t="n">
-        <v>760.2226898018331</v>
+        <v>760.2226898018341</v>
       </c>
       <c r="D45" t="n">
-        <v>621.3840527920452</v>
+        <v>621.3840527920462</v>
       </c>
       <c r="E45" t="n">
-        <v>474.3560428489163</v>
+        <v>474.3560428489174</v>
       </c>
       <c r="F45" t="n">
-        <v>339.6622447987907</v>
+        <v>339.6622447987918</v>
       </c>
       <c r="G45" t="n">
-        <v>211.117820289291</v>
+        <v>211.1178202892921</v>
       </c>
       <c r="H45" t="n">
         <v>112.9577443219936</v>
       </c>
       <c r="I45" t="n">
-        <v>50.91314505435051</v>
+        <v>50.91314505435054</v>
       </c>
       <c r="J45" t="n">
         <v>128.2123037079482</v>
@@ -7734,43 +7734,43 @@
         <v>791.8297725243242</v>
       </c>
       <c r="M45" t="n">
-        <v>1322.575504763523</v>
+        <v>1034.996837045139</v>
       </c>
       <c r="N45" t="n">
-        <v>1593.184732540759</v>
+        <v>1593.184732540761</v>
       </c>
       <c r="O45" t="n">
-        <v>2028.30937449525</v>
+        <v>2028.309374495252</v>
       </c>
       <c r="P45" t="n">
-        <v>2364.856142742767</v>
+        <v>2364.856142742769</v>
       </c>
       <c r="Q45" t="n">
-        <v>2545.657252717525</v>
+        <v>2545.657252717527</v>
       </c>
       <c r="R45" t="n">
-        <v>2497.301809750655</v>
+        <v>2497.301809750657</v>
       </c>
       <c r="S45" t="n">
-        <v>2347.921443832073</v>
+        <v>2347.921443832075</v>
       </c>
       <c r="T45" t="n">
-        <v>2159.978293306705</v>
+        <v>2159.978293306706</v>
       </c>
       <c r="U45" t="n">
-        <v>1941.495611133122</v>
+        <v>1941.495611133123</v>
       </c>
       <c r="V45" t="n">
-        <v>1713.099988581456</v>
+        <v>1713.099988581457</v>
       </c>
       <c r="W45" t="n">
-        <v>1471.784119814766</v>
+        <v>1471.784119814767</v>
       </c>
       <c r="X45" t="n">
-        <v>1273.86713169256</v>
+        <v>1273.867131692561</v>
       </c>
       <c r="Y45" t="n">
-        <v>1081.345805342139</v>
+        <v>1081.34580534214</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>121.4885064712351</v>
+        <v>121.4885064712373</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1005657128527</v>
+        <v>99.10056571285459</v>
       </c>
       <c r="D46" t="n">
-        <v>93.25670132055278</v>
+        <v>93.2567013205543</v>
       </c>
       <c r="E46" t="n">
-        <v>88.47571586180896</v>
+        <v>88.47571586181012</v>
       </c>
       <c r="F46" t="n">
-        <v>83.22308966752342</v>
+        <v>83.22308966752421</v>
       </c>
       <c r="G46" t="n">
-        <v>61.68569250352873</v>
+        <v>61.68569250352915</v>
       </c>
       <c r="H46" t="n">
-        <v>50.91314505435051</v>
+        <v>50.91314505435054</v>
       </c>
       <c r="I46" t="n">
-        <v>50.91314505435051</v>
+        <v>50.91314505435054</v>
       </c>
       <c r="J46" t="n">
-        <v>50.91314505435051</v>
+        <v>50.91314505435054</v>
       </c>
       <c r="K46" t="n">
         <v>102.0900264418355</v>
       </c>
       <c r="L46" t="n">
-        <v>229.4475865139813</v>
+        <v>229.4475865139873</v>
       </c>
       <c r="M46" t="n">
-        <v>515.4486699151155</v>
+        <v>371.1504789079049</v>
       </c>
       <c r="N46" t="n">
-        <v>657.0166417187028</v>
+        <v>512.7184507114921</v>
       </c>
       <c r="O46" t="n">
-        <v>776.859023798031</v>
+        <v>776.8590237980364</v>
       </c>
       <c r="P46" t="n">
-        <v>858.1207091086699</v>
+        <v>858.1207091086753</v>
       </c>
       <c r="Q46" t="n">
-        <v>858.1207091086699</v>
+        <v>858.1207091086753</v>
       </c>
       <c r="R46" t="n">
-        <v>858.1207091086699</v>
+        <v>858.1207091086753</v>
       </c>
       <c r="S46" t="n">
-        <v>794.3283988678751</v>
+        <v>794.3283988678801</v>
       </c>
       <c r="T46" t="n">
-        <v>709.0368532222408</v>
+        <v>709.0368532222453</v>
       </c>
       <c r="U46" t="n">
-        <v>569.0830600924536</v>
+        <v>569.0830600924577</v>
       </c>
       <c r="V46" t="n">
-        <v>455.5757844308135</v>
+        <v>455.5757844308173</v>
       </c>
       <c r="W46" t="n">
-        <v>316.64741172815</v>
+        <v>316.6474117281534</v>
       </c>
       <c r="X46" t="n">
-        <v>232.6229764034631</v>
+        <v>232.6229764034661</v>
       </c>
       <c r="Y46" t="n">
-        <v>157.8158463756775</v>
+        <v>157.8158463756802</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
-        <v>213.682272303363</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L2" t="n">
-        <v>191.5602121631146</v>
+        <v>327.2896114605464</v>
       </c>
       <c r="M2" t="n">
-        <v>187.1563144971591</v>
+        <v>322.8857137945909</v>
       </c>
       <c r="N2" t="n">
-        <v>322.1275134696619</v>
+        <v>243.917695040669</v>
       </c>
       <c r="O2" t="n">
-        <v>322.6841960775522</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P2" t="n">
-        <v>323.6062083485883</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q2" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8061,22 +8061,22 @@
         <v>247.7255684640984</v>
       </c>
       <c r="L3" t="n">
-        <v>248.3048328685796</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M3" t="n">
         <v>115.4839025616399</v>
       </c>
       <c r="N3" t="n">
-        <v>106.7151410677083</v>
+        <v>236.9605242319105</v>
       </c>
       <c r="O3" t="n">
-        <v>115.8594486111111</v>
+        <v>251.5888479085429</v>
       </c>
       <c r="P3" t="n">
-        <v>244.5836053215751</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q3" t="n">
-        <v>243.9805746090947</v>
+        <v>249.4645907423243</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8140,7 +8140,7 @@
         <v>138.7668962480483</v>
       </c>
       <c r="L4" t="n">
-        <v>211.2171120040207</v>
+        <v>211.2171120040208</v>
       </c>
       <c r="M4" t="n">
         <v>232.0625591822793</v>
@@ -8152,7 +8152,7 @@
         <v>211.9541662756472</v>
       </c>
       <c r="P4" t="n">
-        <v>175.5085323082535</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q4" t="n">
         <v>84.9458458910769</v>
@@ -8216,10 +8216,10 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K5" t="n">
-        <v>314.5524032714785</v>
+        <v>309.0683871382489</v>
       </c>
       <c r="L5" t="n">
-        <v>226.4194804924309</v>
+        <v>327.2896114605464</v>
       </c>
       <c r="M5" t="n">
         <v>322.8857137945909</v>
@@ -8234,7 +8234,7 @@
         <v>187.8768090511565</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8292,10 +8292,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>242.2415523308688</v>
       </c>
       <c r="L6" t="n">
         <v>248.3048328685796</v>
@@ -8307,13 +8307,13 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O6" t="n">
-        <v>185.2420574994484</v>
+        <v>251.5888479085429</v>
       </c>
       <c r="P6" t="n">
         <v>244.5836053215751</v>
       </c>
       <c r="Q6" t="n">
-        <v>249.4645907423243</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K8" t="n">
-        <v>178.8230039740467</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L8" t="n">
-        <v>539.4559124082612</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M8" t="n">
-        <v>535.0520147423057</v>
+        <v>535.0520147423056</v>
       </c>
       <c r="N8" t="n">
-        <v>534.2938144173768</v>
+        <v>362.1900378811229</v>
       </c>
       <c r="O8" t="n">
-        <v>425.4079902612845</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P8" t="n">
-        <v>187.8768090511565</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q8" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8529,22 +8529,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>460.4711338162944</v>
+        <v>287.049459275486</v>
       </c>
       <c r="M9" t="n">
-        <v>463.3796028067865</v>
+        <v>463.3796028067864</v>
       </c>
       <c r="N9" t="n">
-        <v>336.413453791643</v>
+        <v>454.6108413128548</v>
       </c>
       <c r="O9" t="n">
-        <v>115.8594486111111</v>
+        <v>463.7551488562576</v>
       </c>
       <c r="P9" t="n">
         <v>108.8542060241433</v>
@@ -8766,10 +8766,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>85.83838770657425</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>82.56925946615493</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8781,13 +8781,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>512.0210150597484</v>
+        <v>171.2876321120222</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>271.6825979950323</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9003,10 +9003,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>85.83838770657425</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>263.77876721747</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9015,7 +9015,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>623.1450866466196</v>
+        <v>282.4117036988941</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.47309024371657</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9240,19 +9240,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>85.83838770657425</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>82.56925946615493</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>480.6745728329247</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>465.0390875117822</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>90.47309024371657</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9477,13 +9477,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>85.83838770657425</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>141.3590659467724</v>
       </c>
       <c r="M21" t="n">
         <v>605.4165828749999</v>
@@ -9495,7 +9495,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>151.34817452015</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
         <v>273.1004740566038</v>
@@ -9720,7 +9720,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>141.3590659467684</v>
+        <v>141.3590659467724</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
@@ -9960,7 +9960,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>605.4165828749999</v>
+        <v>393.0130383651131</v>
       </c>
       <c r="N27" t="n">
         <v>623.1450866466196</v>
@@ -9969,10 +9969,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>384.2254385349186</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.47309024371654</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,10 +10188,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>85.83838770657425</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163522</v>
+        <v>131.4012636064656</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10200,7 +10200,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>332.6615839007754</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10425,13 +10425,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>85.83838770657425</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
-        <v>374.2363299615414</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
         <v>605.4165828749999</v>
@@ -10440,7 +10440,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
-        <v>512.0210150597484</v>
+        <v>482.2448543627502</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
@@ -10665,7 +10665,7 @@
         <v>85.83838770657425</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>131.4012636064663</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10674,7 +10674,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>593.3689259496214</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10683,7 +10683,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.47309024371657</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10899,10 +10899,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>85.83838770657425</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>131.4012636064668</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466196</v>
+        <v>332.6615839007767</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11136,10 +11136,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>85.83838770657425</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>314.0286474193539</v>
+        <v>82.56925946615493</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11151,13 +11151,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>482.7730609641029</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.47309024371657</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11382,10 +11382,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.4165828749999</v>
+        <v>314.9330801291572</v>
       </c>
       <c r="N45" t="n">
-        <v>332.6615839007749</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>238.4931345057241</v>
+        <v>284.3178989845401</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>303.4897150725172</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>305.0823873686065</v>
       </c>
       <c r="H11" t="n">
-        <v>219.484973246095</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>33.35441497686098</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07539964015271</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>114.1044358510483</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>283.0864731595062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-7.460698725481052e-13</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>284.3178989845401</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>305.0823873686065</v>
       </c>
       <c r="H14" t="n">
-        <v>185.3956706970816</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07539964015271</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>145.7892715646252</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>252.3896171305609</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>65.24967267927155</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-1.222133505507372e-12</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24452,7 +24452,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>53.6195280987697</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>53.61952809876919</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>53.61952809876967</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24689,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>53.61952809876922</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -25631,22 +25631,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>96.00608223568398</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>100.6040042199222</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>180.2491884643715</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>12.20246639075196</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25685,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>187.8537328708801</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25877,13 +25877,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>108.2085486264358</v>
       </c>
       <c r="H44" t="n">
-        <v>180.2491884643711</v>
+        <v>180.2491884643715</v>
       </c>
       <c r="I44" t="n">
-        <v>1.655061843531187</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,7 +25919,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>106.5534867829013</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>727112.3801214934</v>
+        <v>727112.3801214935</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>727112.3801214934</v>
+        <v>727112.3801214935</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>797154.9828898523</v>
+        <v>797154.9828898525</v>
       </c>
     </row>
     <row r="9">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>775661.3980491299</v>
+        <v>775661.3980491295</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>775661.3980491299</v>
+        <v>775661.3980491295</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614099.2483953454</v>
+        <v>614099.2483953453</v>
       </c>
       <c r="C2" t="n">
-        <v>614099.2483953452</v>
+        <v>614099.2483953453</v>
       </c>
       <c r="D2" t="n">
         <v>614099.2483953453</v>
       </c>
       <c r="E2" t="n">
+        <v>555116.0039588324</v>
+      </c>
+      <c r="F2" t="n">
         <v>555116.0039588321</v>
       </c>
-      <c r="F2" t="n">
-        <v>555116.0039588322</v>
-      </c>
       <c r="G2" t="n">
+        <v>614099.2483953452</v>
+      </c>
+      <c r="H2" t="n">
+        <v>614099.2483953453</v>
+      </c>
+      <c r="I2" t="n">
         <v>614099.2483953451</v>
-      </c>
-      <c r="H2" t="n">
-        <v>614099.2483953452</v>
-      </c>
-      <c r="I2" t="n">
-        <v>614099.2483953449</v>
       </c>
       <c r="J2" t="n">
         <v>610684.7568460153</v>
@@ -26341,19 +26341,19 @@
         <v>610684.7568460164</v>
       </c>
       <c r="L2" t="n">
-        <v>614099.2483953442</v>
+        <v>614099.2483953446</v>
       </c>
       <c r="M2" t="n">
-        <v>614099.2483953445</v>
+        <v>614099.2483953446</v>
       </c>
       <c r="N2" t="n">
-        <v>614099.2483953447</v>
+        <v>614099.2483953446</v>
       </c>
       <c r="O2" t="n">
-        <v>595730.2596974029</v>
+        <v>595730.2596974027</v>
       </c>
       <c r="P2" t="n">
-        <v>595730.2596974026</v>
+        <v>595730.2596974031</v>
       </c>
     </row>
     <row r="3">
@@ -26369,40 +26369,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>65905.21806338866</v>
+        <v>65905.21806338862</v>
       </c>
       <c r="E3" t="n">
-        <v>235638.9675059368</v>
+        <v>235638.9675059372</v>
       </c>
       <c r="F3" t="n">
-        <v>1.989519660128281e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>49988.92372743155</v>
+        <v>49988.92372743139</v>
       </c>
       <c r="H3" t="n">
-        <v>1.292397544108119e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>129572.3044937456</v>
+        <v>129572.3044937455</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97163.56702138502</v>
+        <v>97163.56702138478</v>
       </c>
       <c r="M3" t="n">
-        <v>68737.42955175189</v>
+        <v>68737.42955175207</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19441.03177232544</v>
+        <v>19441.03177232529</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26433,13 +26433,13 @@
         <v>222167.2733084463</v>
       </c>
       <c r="H4" t="n">
-        <v>222167.2733084463</v>
+        <v>222167.2733084462</v>
       </c>
       <c r="I4" t="n">
-        <v>222167.2733084463</v>
+        <v>222167.2733084462</v>
       </c>
       <c r="J4" t="n">
-        <v>220013.5018605878</v>
+        <v>220013.5018605877</v>
       </c>
       <c r="K4" t="n">
         <v>220013.5018605877</v>
@@ -26451,13 +26451,13 @@
         <v>221349.6165189533</v>
       </c>
       <c r="N4" t="n">
-        <v>221349.6165189532</v>
+        <v>221349.6165189533</v>
       </c>
       <c r="O4" t="n">
-        <v>208290.408046616</v>
+        <v>208290.4080466158</v>
       </c>
       <c r="P4" t="n">
-        <v>208290.408046616</v>
+        <v>208290.4080466158</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>41879.94747728385</v>
       </c>
       <c r="D5" t="n">
-        <v>54779.65857490491</v>
+        <v>54779.6585749049</v>
       </c>
       <c r="E5" t="n">
-        <v>48724.3898295687</v>
+        <v>48724.38982956872</v>
       </c>
       <c r="F5" t="n">
-        <v>48724.38982956869</v>
+        <v>48724.38982956871</v>
       </c>
       <c r="G5" t="n">
-        <v>53977.53836562049</v>
+        <v>53977.53836562052</v>
       </c>
       <c r="H5" t="n">
         <v>53977.53836562052</v>
       </c>
       <c r="I5" t="n">
-        <v>53977.53836562046</v>
+        <v>53977.53836562052</v>
       </c>
       <c r="J5" t="n">
         <v>62395.69296522847</v>
@@ -26497,7 +26497,7 @@
         <v>62395.69296522847</v>
       </c>
       <c r="L5" t="n">
-        <v>54453.38822645663</v>
+        <v>54453.38822645662</v>
       </c>
       <c r="M5" t="n">
         <v>54453.38822645662</v>
@@ -26506,10 +26506,10 @@
         <v>54453.38822645662</v>
       </c>
       <c r="O5" t="n">
-        <v>52794.49505842216</v>
+        <v>52794.49505842212</v>
       </c>
       <c r="P5" t="n">
-        <v>52794.49505842213</v>
+        <v>52794.49505842212</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>196970.4055511075</v>
+        <v>196970.4055511074</v>
       </c>
       <c r="C6" t="n">
-        <v>242456.4490318605</v>
+        <v>242456.4490318606</v>
       </c>
       <c r="D6" t="n">
         <v>205458.6343715434</v>
       </c>
       <c r="E6" t="n">
-        <v>90427.35622518593</v>
+        <v>90243.03358632159</v>
       </c>
       <c r="F6" t="n">
-        <v>326066.3237311228</v>
+        <v>325882.0010922588</v>
       </c>
       <c r="G6" t="n">
-        <v>287965.5129938467</v>
+        <v>287965.512993847</v>
       </c>
       <c r="H6" t="n">
-        <v>337954.4367212782</v>
+        <v>337954.4367212785</v>
       </c>
       <c r="I6" t="n">
-        <v>337954.4367212784</v>
+        <v>337954.4367212783</v>
       </c>
       <c r="J6" t="n">
-        <v>198703.2575264534</v>
+        <v>198692.587240362</v>
       </c>
       <c r="K6" t="n">
-        <v>328275.5620202002</v>
+        <v>328264.8917341086</v>
       </c>
       <c r="L6" t="n">
-        <v>241132.6766285493</v>
+        <v>241132.6766285499</v>
       </c>
       <c r="M6" t="n">
         <v>269558.8140981826</v>
       </c>
       <c r="N6" t="n">
-        <v>338296.2436499349</v>
+        <v>338296.2436499347</v>
       </c>
       <c r="O6" t="n">
-        <v>315204.3248200394</v>
+        <v>315146.9217303585</v>
       </c>
       <c r="P6" t="n">
-        <v>334645.3565923645</v>
+        <v>334587.9535026841</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>106.5199637104141</v>
       </c>
       <c r="G2" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="H2" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="I2" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="J2" t="n">
         <v>106.5199637104141</v>
@@ -26713,19 +26713,19 @@
         <v>106.5199637104141</v>
       </c>
       <c r="L2" t="n">
+        <v>165.4882678278558</v>
+      </c>
+      <c r="M2" t="n">
         <v>165.4882678278559</v>
       </c>
-      <c r="M2" t="n">
-        <v>165.4882678278558</v>
-      </c>
       <c r="N2" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="O2" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="P2" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>84.72315583166049</v>
+        <v>84.72315583166075</v>
       </c>
       <c r="F3" t="n">
         <v>84.72315583166051</v>
@@ -26759,7 +26759,7 @@
         <v>84.72315583166051</v>
       </c>
       <c r="J3" t="n">
-        <v>84.72315583166062</v>
+        <v>84.72315583166063</v>
       </c>
       <c r="K3" t="n">
         <v>84.72315583166051</v>
@@ -26793,34 +26793,34 @@
         <v>135.7293992974318</v>
       </c>
       <c r="D4" t="n">
-        <v>347.8957002451466</v>
+        <v>347.8957002451465</v>
       </c>
       <c r="E4" t="n">
-        <v>623.7236546590082</v>
+        <v>623.7236546590085</v>
       </c>
       <c r="F4" t="n">
-        <v>623.723654659008</v>
+        <v>623.7236546590084</v>
       </c>
       <c r="G4" t="n">
-        <v>623.723654659008</v>
+        <v>623.7236546590086</v>
       </c>
       <c r="H4" t="n">
-        <v>623.7236546590084</v>
+        <v>623.7236546590086</v>
       </c>
       <c r="I4" t="n">
-        <v>623.7236546590076</v>
+        <v>623.7236546590086</v>
       </c>
       <c r="J4" t="n">
-        <v>848.5806141270966</v>
+        <v>848.5806141270965</v>
       </c>
       <c r="K4" t="n">
-        <v>848.5806141270966</v>
+        <v>848.5806141270965</v>
       </c>
       <c r="L4" t="n">
         <v>636.4143131793818</v>
       </c>
       <c r="M4" t="n">
-        <v>636.4143131793818</v>
+        <v>636.4143131793817</v>
       </c>
       <c r="N4" t="n">
         <v>636.4143131793818</v>
@@ -26829,7 +26829,7 @@
         <v>636.4143131793818</v>
       </c>
       <c r="P4" t="n">
-        <v>636.4143131793813</v>
+        <v>636.4143131793818</v>
       </c>
     </row>
   </sheetData>
@@ -26917,10 +26917,10 @@
         <v>106.5199637104141</v>
       </c>
       <c r="F2" t="n">
-        <v>2.486899575160351e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>62.48615465928944</v>
+        <v>62.48615465928924</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.03380905112465</v>
+        <v>44.03380905112486</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>121.4544587767313</v>
+        <v>121.454458776731</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.3012897154068</v>
+        <v>24.30128971540661</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>84.72315583166049</v>
+        <v>84.72315583166075</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-1.534189442854983e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>212.1663009477148</v>
+        <v>212.1663009477147</v>
       </c>
       <c r="E4" t="n">
-        <v>275.8279544138616</v>
+        <v>275.827954413862</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.790046084853061e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-6.221936402474138e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>360.5863587655208</v>
+        <v>360.5863587655197</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>275.8279544138616</v>
+        <v>275.8279544138619</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>106.5199637104141</v>
       </c>
       <c r="K2" t="n">
-        <v>2.486899575160351e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>62.48615465928944</v>
+        <v>62.48615465928924</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.03380905112465</v>
+        <v>44.03380905112486</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>212.1663009477148</v>
+        <v>212.1663009477147</v>
       </c>
       <c r="M4" t="n">
-        <v>275.8279544138616</v>
+        <v>275.827954413862</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.790046084853061e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27382,22 +27382,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>233.3663258276169</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>392.1340742012125</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>193.763662361232</v>
       </c>
       <c r="I2" t="n">
-        <v>35.35962750586017</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>177.4907598171621</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>86.38595750886716</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>116.6070836257141</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>223.1801815435432</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
         <v>378.2098390737216</v>
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.0958490560165</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>77.08622195451581</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
         <v>145.5577298436975</v>
@@ -27473,7 +27473,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>67.69846245683961</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>15.54209281995534</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>51.06885349824287</v>
       </c>
       <c r="U3" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>226.1116663261494</v>
+        <v>205.4996903037404</v>
       </c>
       <c r="W3" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>60.20841894355158</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
         <v>54.86671378948517</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159.777994229175</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
         <v>167.9198098429365</v>
@@ -27546,7 +27546,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>15.22644912704888</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
         <v>167.2305511458285</v>
@@ -27558,7 +27558,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>12.2971642743338</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>130.1741780020193</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>95.11776435504618</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
@@ -27597,10 +27597,10 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>147.5654381703431</v>
       </c>
       <c r="X4" t="n">
-        <v>93.21054016614622</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
         <v>219.8148072196457</v>
@@ -27616,22 +27616,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>348.295869818448</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>255.1084633975224</v>
       </c>
       <c r="F5" t="n">
-        <v>274.2802794854996</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>276.2135473829221</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>193.763662361232</v>
+        <v>321.6271358598763</v>
       </c>
       <c r="I5" t="n">
         <v>171.0890268032919</v>
@@ -27673,10 +27673,10 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>197.8800820655863</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>223.1801815435432</v>
       </c>
       <c r="X5" t="n">
         <v>378.2098390737216</v>
@@ -27704,16 +27704,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>36.41576288613979</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,25 +27743,25 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>31.72103721620918</v>
       </c>
       <c r="T6" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>216.3098444776729</v>
+        <v>80.58044518024116</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>103.1733107815913</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>195.9378182409833</v>
+        <v>60.20841894355158</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>54.86671378948517</v>
       </c>
     </row>
     <row r="7">
@@ -27819,28 +27819,28 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>28.47610867058775</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>111.2967087513001</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>148.5889378183593</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>122.3985520997298</v>
       </c>
       <c r="W7" t="n">
         <v>147.5654381703431</v>
       </c>
       <c r="X7" t="n">
-        <v>93.21054016614622</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>84.0854079222139</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="8">
@@ -27856,13 +27856,13 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>21.20002487990217</v>
       </c>
       <c r="E8" t="n">
-        <v>42.9421624498076</v>
+        <v>42.94216244980771</v>
       </c>
       <c r="F8" t="n">
-        <v>62.11397853778476</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>339.5145840004587</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>30.31413882857498</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>312.9616674814512</v>
       </c>
     </row>
     <row r="9">
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
@@ -27944,13 +27944,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>31.98398647200385</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
@@ -27989,16 +27989,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>54.7312749626179</v>
       </c>
     </row>
     <row r="10">
@@ -28014,13 +28014,13 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
         <v>167.2305511458285</v>
@@ -28062,16 +28062,16 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>271.7216854425708</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>59.05320733929724</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.33696519685174</v>
+        <v>68.33696519685168</v>
       </c>
       <c r="S11" t="n">
         <v>106.5199637104141</v>
@@ -28184,10 +28184,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>49.24990758586494</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>49.24990758586358</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28421,10 +28421,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>49.24990758586539</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>49.24990758586406</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="C17" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="D17" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="E17" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="F17" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="G17" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="H17" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="I17" t="n">
         <v>157.9582148828896</v>
@@ -28594,7 +28594,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.762145984685048e-12</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>68.33696519685174</v>
       </c>
       <c r="S17" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="T17" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="U17" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="V17" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="W17" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="X17" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="Y17" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
     </row>
     <row r="18">
@@ -28652,7 +28652,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>49.24990758586317</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.378019048663425</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>47.8718885372019</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="C19" t="n">
-        <v>59.12330016380167</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28770,25 +28770,25 @@
         <v>141.1570434284313</v>
       </c>
       <c r="S19" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="T19" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="U19" t="n">
-        <v>169.0061183697035</v>
+        <v>60.20960869057001</v>
       </c>
       <c r="V19" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="W19" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="X19" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="Y19" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="C20" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="D20" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="E20" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="F20" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="G20" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="H20" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="I20" t="n">
         <v>157.9582148828896</v>
@@ -28831,7 +28831,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.762145984685048e-12</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>68.33696519685174</v>
       </c>
       <c r="S20" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="T20" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="U20" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="V20" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="W20" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="X20" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="Y20" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
     </row>
     <row r="21">
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>49.24990758586318</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,10 +28925,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>47.8718885372019</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1.378019048662196</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
@@ -29004,28 +29004,28 @@
         <v>25.35877140226712</v>
       </c>
       <c r="R22" t="n">
-        <v>141.1570434284313</v>
+        <v>32.3605337492979</v>
       </c>
       <c r="S22" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="T22" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="U22" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="V22" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="W22" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="X22" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.2096086905687</v>
+        <v>169.0061183697034</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="C23" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="D23" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="E23" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="F23" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="G23" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="H23" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="I23" t="n">
-        <v>157.9582148828874</v>
+        <v>157.9582148828896</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29074,7 +29074,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.762145984685048e-12</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>68.33696519685174</v>
       </c>
       <c r="S23" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="T23" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="U23" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="V23" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="W23" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="X23" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="Y23" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
     </row>
     <row r="24">
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>49.24990758586318</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29168,7 +29168,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>49.24990758586736</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -29241,28 +29241,28 @@
         <v>25.35877140226712</v>
       </c>
       <c r="R25" t="n">
-        <v>141.1570434284313</v>
+        <v>32.3605337492979</v>
       </c>
       <c r="S25" t="n">
-        <v>60.2096086905687</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="T25" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="U25" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="V25" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="W25" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="X25" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
       <c r="Y25" t="n">
-        <v>169.0061183697035</v>
+        <v>169.0061183697034</v>
       </c>
     </row>
     <row r="26">
@@ -29320,7 +29320,7 @@
         <v>106.5199637104141</v>
       </c>
       <c r="R26" t="n">
-        <v>106.5199637104142</v>
+        <v>106.5199637104141</v>
       </c>
       <c r="S26" t="n">
         <v>106.5199637104141</v>
@@ -29691,10 +29691,10 @@
         <v>106.5199637104141</v>
       </c>
       <c r="J31" t="n">
+        <v>106.519963710414</v>
+      </c>
+      <c r="K31" t="n">
         <v>106.5199637104141</v>
-      </c>
-      <c r="K31" t="n">
-        <v>106.5199637104153</v>
       </c>
       <c r="L31" t="n">
         <v>106.5199637104141</v>
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>165.4882678278559</v>
+        <v>165.4882678278558</v>
       </c>
       <c r="C32" t="n">
-        <v>165.4882678278559</v>
+        <v>165.4882678278558</v>
       </c>
       <c r="D32" t="n">
-        <v>165.4882678278559</v>
+        <v>165.4882678278558</v>
       </c>
       <c r="E32" t="n">
-        <v>165.4882678278559</v>
+        <v>165.4882678278558</v>
       </c>
       <c r="F32" t="n">
-        <v>165.4882678278559</v>
+        <v>165.4882678278558</v>
       </c>
       <c r="G32" t="n">
-        <v>165.4882678278559</v>
+        <v>165.4882678278558</v>
       </c>
       <c r="H32" t="n">
-        <v>165.4882678278559</v>
+        <v>165.4882678278558</v>
       </c>
       <c r="I32" t="n">
         <v>157.9582148828896</v>
@@ -29785,7 +29785,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>50.24988020188346</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.5868453987351</v>
+        <v>68.33696519685174</v>
       </c>
       <c r="S32" t="n">
-        <v>165.4882678278559</v>
+        <v>165.4882678278558</v>
       </c>
       <c r="T32" t="n">
-        <v>165.4882678278559</v>
+        <v>165.4882678278558</v>
       </c>
       <c r="U32" t="n">
-        <v>165.4882678278559</v>
+        <v>165.4882678278558</v>
       </c>
       <c r="V32" t="n">
-        <v>165.4882678278559</v>
+        <v>165.4882678278558</v>
       </c>
       <c r="W32" t="n">
-        <v>165.4882678278559</v>
+        <v>165.4882678278558</v>
       </c>
       <c r="X32" t="n">
-        <v>165.4882678278559</v>
+        <v>165.4882678278558</v>
       </c>
       <c r="Y32" t="n">
-        <v>165.4882678278559</v>
+        <v>165.4882678278558</v>
       </c>
     </row>
     <row r="33">
@@ -29904,10 +29904,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>165.4882678278559</v>
+        <v>165.4882678278558</v>
       </c>
       <c r="C34" t="n">
-        <v>165.4882678278559</v>
+        <v>165.4882678278558</v>
       </c>
       <c r="D34" t="n">
         <v>151.5411742405149</v>
@@ -29919,7 +29919,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>165.4882678278559</v>
+        <v>165.4882678278558</v>
       </c>
       <c r="H34" t="n">
         <v>156.4205704668244</v>
@@ -29949,31 +29949,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>25.35877140226712</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>141.1570434284313</v>
+        <v>89.88315535806288</v>
       </c>
       <c r="S34" t="n">
-        <v>88.85560835521945</v>
+        <v>165.4882678278558</v>
       </c>
       <c r="T34" t="n">
-        <v>165.4882678278559</v>
+        <v>165.4882678278558</v>
       </c>
       <c r="U34" t="n">
-        <v>165.4882678278559</v>
+        <v>165.4882678278558</v>
       </c>
       <c r="V34" t="n">
-        <v>165.4882678278559</v>
+        <v>165.4882678278558</v>
       </c>
       <c r="W34" t="n">
-        <v>165.4882678278559</v>
+        <v>165.4882678278558</v>
       </c>
       <c r="X34" t="n">
-        <v>165.4882678278559</v>
+        <v>165.4882678278558</v>
       </c>
       <c r="Y34" t="n">
-        <v>165.4882678278559</v>
+        <v>165.4882678278558</v>
       </c>
     </row>
     <row r="35">
@@ -29983,34 +29983,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="C35" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="D35" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="E35" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="F35" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="G35" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="H35" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="I35" t="n">
-        <v>165.4882678278558</v>
+        <v>157.9582148828896</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>42.71982725691731</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30025,7 +30025,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>50.24988020188283</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>68.33696519685174</v>
       </c>
       <c r="S35" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="T35" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="U35" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="V35" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="W35" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="X35" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="Y35" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="C37" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30156,7 +30156,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="H37" t="n">
         <v>156.4205704668244</v>
@@ -30192,25 +30192,25 @@
         <v>141.1570434284313</v>
       </c>
       <c r="S37" t="n">
-        <v>88.85560835522024</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="T37" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="U37" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="V37" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="W37" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="X37" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="Y37" t="n">
-        <v>165.4882678278558</v>
+        <v>88.85560835521986</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="C38" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="D38" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="E38" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="F38" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="G38" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="H38" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="I38" t="n">
-        <v>165.4882678278558</v>
+        <v>157.9582148828896</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30256,7 +30256,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>50.24988020188351</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>111.056792453769</v>
+        <v>68.33696519685174</v>
       </c>
       <c r="S38" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="T38" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="U38" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="V38" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="W38" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="X38" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="Y38" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
     </row>
     <row r="39">
@@ -30314,7 +30314,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>-1.037392394209746e-12</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="C40" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30393,10 +30393,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="H40" t="n">
-        <v>79.78791099418882</v>
+        <v>156.4205704668244</v>
       </c>
       <c r="I40" t="n">
         <v>138.1665188797231</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>25.35877140226712</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>141.1570434284313</v>
       </c>
       <c r="S40" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="T40" t="n">
-        <v>165.4882678278558</v>
+        <v>114.2143797574871</v>
       </c>
       <c r="U40" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="V40" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="W40" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="X40" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
       <c r="Y40" t="n">
-        <v>165.4882678278558</v>
+        <v>165.4882678278559</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="C41" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="D41" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="E41" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="F41" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="G41" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="H41" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="I41" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30502,31 +30502,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>50.24988020188334</v>
       </c>
       <c r="R41" t="n">
-        <v>118.5868453987351</v>
+        <v>68.33696519685174</v>
       </c>
       <c r="S41" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="T41" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="U41" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="V41" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="W41" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="X41" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
     </row>
     <row r="42">
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>-1.044497821567347e-12</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="C43" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="D43" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="E43" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="F43" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="G43" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="H43" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="I43" t="n">
         <v>138.1665188797231</v>
@@ -30657,34 +30657,34 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>29.66531976157817</v>
+        <v>29.66531976158403</v>
       </c>
       <c r="Q43" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="R43" t="n">
         <v>141.1570434284313</v>
       </c>
       <c r="S43" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="T43" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="U43" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="V43" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="W43" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="X43" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="Y43" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="C44" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="D44" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="E44" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="F44" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="G44" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="H44" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="I44" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30724,7 +30724,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>50.24988020188357</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.5868453987332</v>
+        <v>68.33696519685174</v>
       </c>
       <c r="S44" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="T44" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="U44" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="V44" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="W44" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="X44" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
     </row>
     <row r="45">
@@ -30791,7 +30791,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>-3.707456952189045e-13</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -30827,7 +30827,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="C46" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="D46" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="E46" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="F46" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="G46" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="H46" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="I46" t="n">
         <v>138.1665188797231</v>
@@ -30882,16 +30882,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>4.306548359311108</v>
+        <v>4.306548359317134</v>
       </c>
       <c r="M46" t="n">
-        <v>145.755748492138</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>141.1570434284313</v>
       </c>
       <c r="S46" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="T46" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="U46" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="V46" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="W46" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="X46" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
       <c r="Y46" t="n">
-        <v>145.755748492138</v>
+        <v>145.7557484921376</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3405956013333082</v>
+        <v>0.3405956013333093</v>
       </c>
       <c r="H11" t="n">
-        <v>3.488124702154744</v>
+        <v>3.488124702154754</v>
       </c>
       <c r="I11" t="n">
-        <v>13.13081192040238</v>
+        <v>13.13081192040242</v>
       </c>
       <c r="J11" t="n">
-        <v>28.9076259186629</v>
+        <v>28.90762591866298</v>
       </c>
       <c r="K11" t="n">
-        <v>43.32503772310184</v>
+        <v>43.32503772310198</v>
       </c>
       <c r="L11" t="n">
-        <v>53.74854035740609</v>
+        <v>53.74854035740625</v>
       </c>
       <c r="M11" t="n">
-        <v>59.8056073826173</v>
+        <v>59.80560738261749</v>
       </c>
       <c r="N11" t="n">
-        <v>60.77332463490557</v>
+        <v>60.77332463490576</v>
       </c>
       <c r="O11" t="n">
-        <v>57.38652712414748</v>
+        <v>57.38652712414766</v>
       </c>
       <c r="P11" t="n">
-        <v>48.97807321623143</v>
+        <v>48.97807321623158</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.78049324348232</v>
+        <v>36.78049324348243</v>
       </c>
       <c r="R11" t="n">
-        <v>21.39493844225344</v>
+        <v>21.39493844225351</v>
       </c>
       <c r="S11" t="n">
-        <v>7.76132226538277</v>
+        <v>7.761322265382793</v>
       </c>
       <c r="T11" t="n">
-        <v>1.490957244836558</v>
+        <v>1.490957244836562</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02724764810666466</v>
+        <v>0.02724764810666474</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1822347125435716</v>
+        <v>0.1822347125435722</v>
       </c>
       <c r="H12" t="n">
-        <v>1.760003671144495</v>
+        <v>1.7600036711445</v>
       </c>
       <c r="I12" t="n">
-        <v>6.274309181872971</v>
+        <v>6.27430918187299</v>
       </c>
       <c r="J12" t="n">
-        <v>17.21718396009244</v>
+        <v>17.21718396009249</v>
       </c>
       <c r="K12" t="n">
-        <v>29.42690970051174</v>
+        <v>29.42690970051183</v>
       </c>
       <c r="L12" t="n">
-        <v>39.5681115985505</v>
+        <v>39.56811159855062</v>
       </c>
       <c r="M12" t="n">
-        <v>46.17411992825496</v>
+        <v>46.1741199282551</v>
       </c>
       <c r="N12" t="n">
-        <v>47.39621148737393</v>
+        <v>47.39621148737407</v>
       </c>
       <c r="O12" t="n">
-        <v>43.35827390943478</v>
+        <v>43.35827390943491</v>
       </c>
       <c r="P12" t="n">
-        <v>34.79883734527203</v>
+        <v>34.79883734527213</v>
       </c>
       <c r="Q12" t="n">
-        <v>23.26210120117592</v>
+        <v>23.26210120117599</v>
       </c>
       <c r="R12" t="n">
-        <v>11.31453767880176</v>
+        <v>11.31453767880179</v>
       </c>
       <c r="S12" t="n">
-        <v>3.384929857991339</v>
+        <v>3.38492985799135</v>
       </c>
       <c r="T12" t="n">
-        <v>0.7345337755593959</v>
+        <v>0.7345337755593981</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01198912582523498</v>
+        <v>0.01198912582523502</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1527794613357812</v>
+        <v>0.1527794613357817</v>
       </c>
       <c r="H13" t="n">
-        <v>1.358348301694492</v>
+        <v>1.358348301694496</v>
       </c>
       <c r="I13" t="n">
-        <v>4.59449507362513</v>
+        <v>4.594495073625144</v>
       </c>
       <c r="J13" t="n">
-        <v>10.80150791643973</v>
+        <v>10.80150791643976</v>
       </c>
       <c r="K13" t="n">
-        <v>17.75019559882985</v>
+        <v>17.7501955988299</v>
       </c>
       <c r="L13" t="n">
-        <v>22.71413918804878</v>
+        <v>22.71413918804885</v>
       </c>
       <c r="M13" t="n">
-        <v>23.94887501648068</v>
+        <v>23.94887501648075</v>
       </c>
       <c r="N13" t="n">
-        <v>23.37942429695643</v>
+        <v>23.37942429695649</v>
       </c>
       <c r="O13" t="n">
-        <v>21.5946824077157</v>
+        <v>21.59468240771577</v>
       </c>
       <c r="P13" t="n">
-        <v>18.47798139646575</v>
+        <v>18.4779813964658</v>
       </c>
       <c r="Q13" t="n">
-        <v>12.79319653058073</v>
+        <v>12.79319653058077</v>
       </c>
       <c r="R13" t="n">
-        <v>6.869520143334306</v>
+        <v>6.869520143334326</v>
       </c>
       <c r="S13" t="n">
-        <v>2.662529339824477</v>
+        <v>2.662529339824485</v>
       </c>
       <c r="T13" t="n">
-        <v>0.6527849711619741</v>
+        <v>0.652784971161976</v>
       </c>
       <c r="U13" t="n">
-        <v>0.008333425163769894</v>
+        <v>0.008333425163769918</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32935,31 +32935,31 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3405956013333087</v>
+        <v>0.3405956013333088</v>
       </c>
       <c r="H26" t="n">
-        <v>3.488124702154749</v>
+        <v>3.48812470215475</v>
       </c>
       <c r="I26" t="n">
         <v>13.1308119204024</v>
       </c>
       <c r="J26" t="n">
-        <v>28.90762591866294</v>
+        <v>28.90762591866295</v>
       </c>
       <c r="K26" t="n">
         <v>43.32503772310191</v>
       </c>
       <c r="L26" t="n">
-        <v>53.74854035740617</v>
+        <v>53.74854035740618</v>
       </c>
       <c r="M26" t="n">
         <v>59.8056073826174</v>
       </c>
       <c r="N26" t="n">
-        <v>60.77332463490566</v>
+        <v>60.77332463490568</v>
       </c>
       <c r="O26" t="n">
-        <v>57.38652712414757</v>
+        <v>57.38652712414758</v>
       </c>
       <c r="P26" t="n">
         <v>48.97807321623151</v>
@@ -32971,7 +32971,7 @@
         <v>21.39493844225348</v>
       </c>
       <c r="S26" t="n">
-        <v>7.761322265382781</v>
+        <v>7.761322265382782</v>
       </c>
       <c r="T26" t="n">
         <v>1.49095724483656</v>
@@ -33017,10 +33017,10 @@
         <v>0.1822347125435719</v>
       </c>
       <c r="H27" t="n">
-        <v>1.760003671144497</v>
+        <v>1.760003671144498</v>
       </c>
       <c r="I27" t="n">
-        <v>6.274309181872981</v>
+        <v>6.274309181872982</v>
       </c>
       <c r="J27" t="n">
         <v>17.21718396009247</v>
@@ -33029,31 +33029,31 @@
         <v>29.42690970051179</v>
       </c>
       <c r="L27" t="n">
-        <v>39.56811159855056</v>
+        <v>39.56811159855057</v>
       </c>
       <c r="M27" t="n">
-        <v>46.17411992825503</v>
+        <v>46.17411992825504</v>
       </c>
       <c r="N27" t="n">
         <v>47.396211487374</v>
       </c>
       <c r="O27" t="n">
-        <v>43.35827390943484</v>
+        <v>43.35827390943485</v>
       </c>
       <c r="P27" t="n">
         <v>34.79883734527208</v>
       </c>
       <c r="Q27" t="n">
-        <v>23.26210120117595</v>
+        <v>23.26210120117596</v>
       </c>
       <c r="R27" t="n">
         <v>11.31453767880178</v>
       </c>
       <c r="S27" t="n">
-        <v>3.384929857991344</v>
+        <v>3.384929857991345</v>
       </c>
       <c r="T27" t="n">
-        <v>0.734533775559397</v>
+        <v>0.7345337755593971</v>
       </c>
       <c r="U27" t="n">
         <v>0.011989125825235</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1527794613357814</v>
+        <v>0.1527794613357815</v>
       </c>
       <c r="H28" t="n">
         <v>1.358348301694494</v>
       </c>
       <c r="I28" t="n">
-        <v>4.594495073625137</v>
+        <v>4.594495073625138</v>
       </c>
       <c r="J28" t="n">
         <v>10.80150791643975</v>
@@ -33117,7 +33117,7 @@
         <v>23.37942429695646</v>
       </c>
       <c r="O28" t="n">
-        <v>21.59468240771573</v>
+        <v>21.59468240771574</v>
       </c>
       <c r="P28" t="n">
         <v>18.47798139646578</v>
@@ -33126,16 +33126,16 @@
         <v>12.79319653058075</v>
       </c>
       <c r="R28" t="n">
-        <v>6.869520143334316</v>
+        <v>6.869520143334317</v>
       </c>
       <c r="S28" t="n">
         <v>2.662529339824481</v>
       </c>
       <c r="T28" t="n">
-        <v>0.652784971161975</v>
+        <v>0.6527849711619751</v>
       </c>
       <c r="U28" t="n">
-        <v>0.008333425163769906</v>
+        <v>0.008333425163769908</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
-        <v>34.85926832931629</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="N2" t="n">
-        <v>135.7293992974318</v>
+        <v>57.51958086843889</v>
       </c>
       <c r="O2" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,22 +34781,22 @@
         <v>135.7293992974318</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>130.2453831642022</v>
+      </c>
+      <c r="O3" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>130.2453831642022</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,7 +34860,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L4" t="n">
-        <v>101.6233125255146</v>
+        <v>101.6233125255147</v>
       </c>
       <c r="M4" t="n">
         <v>119.1853597248502</v>
@@ -34872,7 +34872,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P4" t="n">
-        <v>63.60452901832108</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,10 +34936,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>130.2453831642022</v>
+      </c>
+      <c r="L5" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="L5" t="n">
-        <v>34.85926832931631</v>
       </c>
       <c r="M5" t="n">
         <v>135.7293992974318</v>
@@ -34954,7 +34954,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="L6" t="n">
         <v>135.7293992974318</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>69.38260888833734</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="P6" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="Q6" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L8" t="n">
-        <v>347.8957002451466</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>347.8957002451466</v>
+        <v>347.8957002451465</v>
       </c>
       <c r="N8" t="n">
-        <v>347.8957002451466</v>
+        <v>175.7919237088927</v>
       </c>
       <c r="O8" t="n">
-        <v>238.453193481164</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q8" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>347.8957002451466</v>
+        <v>174.4740257043382</v>
       </c>
       <c r="M9" t="n">
-        <v>347.8957002451466</v>
+        <v>347.8957002451465</v>
       </c>
       <c r="N9" t="n">
-        <v>229.6983127239346</v>
+        <v>347.8957002451465</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>347.8957002451465</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.6334282144262</v>
+        <v>101.6334282144263</v>
       </c>
       <c r="K11" t="n">
-        <v>285.8910700915693</v>
+        <v>285.8910700915694</v>
       </c>
       <c r="L11" t="n">
-        <v>405.147907109877</v>
+        <v>405.1479071098772</v>
       </c>
       <c r="M11" t="n">
-        <v>457.0168864261405</v>
+        <v>457.0168864261407</v>
       </c>
       <c r="N11" t="n">
-        <v>442.9262121982548</v>
+        <v>442.926212198255</v>
       </c>
       <c r="O11" t="n">
-        <v>365.4719659855959</v>
+        <v>365.4719659855961</v>
       </c>
       <c r="P11" t="n">
-        <v>279.4395847880024</v>
+        <v>279.4395847880025</v>
       </c>
       <c r="Q11" t="n">
-        <v>132.1666080783682</v>
+        <v>132.1666080783683</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>78.07995823595729</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>261.2355486501974</v>
       </c>
       <c r="L12" t="n">
-        <v>409.0851269218996</v>
+        <v>409.0851269218998</v>
       </c>
       <c r="M12" t="n">
-        <v>536.106800241615</v>
+        <v>536.1068002416151</v>
       </c>
       <c r="N12" t="n">
-        <v>563.8261570662851</v>
+        <v>563.8261570662853</v>
       </c>
       <c r="O12" t="n">
-        <v>439.519840358072</v>
+        <v>98.78645741034596</v>
       </c>
       <c r="P12" t="n">
-        <v>339.946230553047</v>
+        <v>339.9462305530471</v>
       </c>
       <c r="Q12" t="n">
-        <v>181.2095077513158</v>
+        <v>182.6273838128873</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.86480542688482</v>
+        <v>57.86480542688489</v>
       </c>
       <c r="K13" t="n">
-        <v>158.2137832937322</v>
+        <v>158.2137832937323</v>
       </c>
       <c r="L13" t="n">
-        <v>230.8574154239775</v>
+        <v>230.8574154239776</v>
       </c>
       <c r="M13" t="n">
-        <v>249.654198451745</v>
+        <v>249.6541984517451</v>
       </c>
       <c r="N13" t="n">
-        <v>249.5179150271689</v>
+        <v>249.517915027169</v>
       </c>
       <c r="O13" t="n">
-        <v>227.5728749016547</v>
+        <v>227.5728749016548</v>
       </c>
       <c r="P13" t="n">
-        <v>188.6024741252008</v>
+        <v>188.602474125201</v>
       </c>
       <c r="Q13" t="n">
-        <v>81.16119230814697</v>
+        <v>81.16119230814705</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>78.07995823595724</v>
       </c>
       <c r="K15" t="n">
-        <v>181.209507751315</v>
+        <v>261.2355486501973</v>
       </c>
       <c r="L15" t="n">
         <v>409.0851269218996</v>
@@ -35735,7 +35735,7 @@
         <v>536.106800241615</v>
       </c>
       <c r="N15" t="n">
-        <v>563.8261570662851</v>
+        <v>223.0927741185598</v>
       </c>
       <c r="O15" t="n">
         <v>439.519840358072</v>
@@ -35744,7 +35744,7 @@
         <v>339.946230553047</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>182.6273838128872</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57.86480542688482</v>
+        <v>57.86480542688485</v>
       </c>
       <c r="K16" t="n">
         <v>158.2137832937323</v>
       </c>
       <c r="L16" t="n">
-        <v>230.8574154239775</v>
+        <v>230.8574154239776</v>
       </c>
       <c r="M16" t="n">
         <v>249.654198451745</v>
       </c>
       <c r="N16" t="n">
-        <v>249.5179150271688</v>
+        <v>249.5179150271689</v>
       </c>
       <c r="O16" t="n">
-        <v>227.5728749016547</v>
+        <v>227.5728749016548</v>
       </c>
       <c r="P16" t="n">
         <v>188.6024741252008</v>
       </c>
       <c r="Q16" t="n">
-        <v>81.16119230814698</v>
+        <v>81.16119230814701</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>405.1479071098771</v>
       </c>
       <c r="M17" t="n">
-        <v>457.0168864261405</v>
+        <v>457.0168864261423</v>
       </c>
       <c r="N17" t="n">
         <v>442.9262121982548</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>78.07995823595724</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>261.2355486501973</v>
       </c>
       <c r="L18" t="n">
-        <v>407.6672508603274</v>
+        <v>409.0851269218996</v>
       </c>
       <c r="M18" t="n">
         <v>536.106800241615</v>
       </c>
       <c r="N18" t="n">
-        <v>563.8261570662851</v>
+        <v>405.7201579314478</v>
       </c>
       <c r="O18" t="n">
         <v>439.519840358072</v>
@@ -35981,7 +35981,7 @@
         <v>339.946230553047</v>
       </c>
       <c r="Q18" t="n">
-        <v>182.6273838128872</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>405.1479071098771</v>
       </c>
       <c r="M20" t="n">
-        <v>457.0168864261405</v>
+        <v>457.0168864261423</v>
       </c>
       <c r="N20" t="n">
         <v>442.9262121982548</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>78.07995823595724</v>
       </c>
       <c r="K21" t="n">
         <v>261.2355486501973</v>
       </c>
       <c r="L21" t="n">
-        <v>409.0851269218996</v>
+        <v>68.35174397417516</v>
       </c>
       <c r="M21" t="n">
         <v>536.106800241615</v>
@@ -36215,7 +36215,7 @@
         <v>439.519840358072</v>
       </c>
       <c r="P21" t="n">
-        <v>77.29280584127872</v>
+        <v>339.946230553047</v>
       </c>
       <c r="Q21" t="n">
         <v>182.6273838128872</v>
@@ -36370,7 +36370,7 @@
         <v>442.9262121982548</v>
       </c>
       <c r="O23" t="n">
-        <v>365.4719659855959</v>
+        <v>365.4719659855977</v>
       </c>
       <c r="P23" t="n">
         <v>279.4395847880024</v>
@@ -36440,7 +36440,7 @@
         <v>261.2355486501973</v>
       </c>
       <c r="L24" t="n">
-        <v>68.35174397417114</v>
+        <v>68.35174397417516</v>
       </c>
       <c r="M24" t="n">
         <v>536.106800241615</v>
@@ -36616,7 +36616,7 @@
         <v>238.6865717887823</v>
       </c>
       <c r="R26" t="n">
-        <v>38.18299851356247</v>
+        <v>38.18299851356238</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>409.0851269218997</v>
       </c>
       <c r="M27" t="n">
-        <v>536.106800241615</v>
+        <v>323.7032557317282</v>
       </c>
       <c r="N27" t="n">
         <v>563.8261570662852</v>
@@ -36689,10 +36689,10 @@
         <v>439.5198403580721</v>
       </c>
       <c r="P27" t="n">
-        <v>310.1700698560473</v>
+        <v>339.9462305530471</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>182.6273838128873</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>188.6024741252009</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.16119230814698</v>
+        <v>81.16119230814699</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>549.4461759086689</v>
       </c>
       <c r="O29" t="n">
-        <v>471.99192969601</v>
+        <v>471.9919296960101</v>
       </c>
       <c r="P29" t="n">
         <v>385.9595484984164</v>
@@ -36853,7 +36853,7 @@
         <v>238.6865717887823</v>
       </c>
       <c r="R29" t="n">
-        <v>38.18299851356232</v>
+        <v>38.18299851356235</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>78.07995823595724</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>261.2355486501973</v>
+        <v>48.83200414031069</v>
       </c>
       <c r="L30" t="n">
         <v>409.0851269218996</v>
@@ -36920,7 +36920,7 @@
         <v>536.106800241615</v>
       </c>
       <c r="N30" t="n">
-        <v>273.342654320441</v>
+        <v>563.8261570662851</v>
       </c>
       <c r="O30" t="n">
         <v>439.519840358072</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>57.86480542688479</v>
+        <v>57.86480542688469</v>
       </c>
       <c r="K31" t="n">
-        <v>158.2137832937334</v>
+        <v>158.2137832937323</v>
       </c>
       <c r="L31" t="n">
         <v>230.8574154239775</v>
@@ -37008,7 +37008,7 @@
         <v>188.6024741252008</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.16119230814695</v>
+        <v>81.16119230814698</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>442.9262121982548</v>
       </c>
       <c r="O32" t="n">
-        <v>365.4719659855959</v>
+        <v>415.7218461874794</v>
       </c>
       <c r="P32" t="n">
         <v>279.4395847880024</v>
@@ -37090,7 +37090,7 @@
         <v>132.1666080783682</v>
       </c>
       <c r="R32" t="n">
-        <v>50.24988020188331</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>78.07995823595724</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>261.2355486501973</v>
       </c>
       <c r="L33" t="n">
-        <v>301.2290079889441</v>
+        <v>409.0851269218996</v>
       </c>
       <c r="M33" t="n">
         <v>536.106800241615</v>
@@ -37160,7 +37160,7 @@
         <v>563.8261570662851</v>
       </c>
       <c r="O33" t="n">
-        <v>439.519840358072</v>
+        <v>409.7436796610739</v>
       </c>
       <c r="P33" t="n">
         <v>339.946230553047</v>
@@ -37300,13 +37300,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.530052944966259</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>101.6334282144262</v>
       </c>
       <c r="K35" t="n">
-        <v>328.6108973484866</v>
+        <v>285.8910700915693</v>
       </c>
       <c r="L35" t="n">
         <v>405.1479071098771</v>
@@ -37321,7 +37321,7 @@
         <v>365.4719659855959</v>
       </c>
       <c r="P35" t="n">
-        <v>279.4395847880024</v>
+        <v>329.6894649898852</v>
       </c>
       <c r="Q35" t="n">
         <v>132.1666080783682</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>261.2355486501973</v>
+        <v>48.8320041403114</v>
       </c>
       <c r="L36" t="n">
         <v>409.0851269218996</v>
@@ -37394,7 +37394,7 @@
         <v>536.106800241615</v>
       </c>
       <c r="N36" t="n">
-        <v>534.049996369287</v>
+        <v>563.8261570662851</v>
       </c>
       <c r="O36" t="n">
         <v>439.519840358072</v>
@@ -37403,7 +37403,7 @@
         <v>339.946230553047</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>182.6273838128872</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>7.530052944966259</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>101.6334282144262</v>
@@ -37552,7 +37552,7 @@
         <v>457.0168864261405</v>
       </c>
       <c r="N38" t="n">
-        <v>442.9262121982548</v>
+        <v>493.1760924001383</v>
       </c>
       <c r="O38" t="n">
         <v>365.4719659855959</v>
@@ -37564,7 +37564,7 @@
         <v>132.1666080783682</v>
       </c>
       <c r="R38" t="n">
-        <v>42.71982725691726</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>78.07995823595724</v>
       </c>
       <c r="K39" t="n">
-        <v>48.83200414031185</v>
+        <v>261.2355486501973</v>
       </c>
       <c r="L39" t="n">
         <v>409.0851269218996</v>
@@ -37631,7 +37631,7 @@
         <v>536.106800241615</v>
       </c>
       <c r="N39" t="n">
-        <v>563.8261570662851</v>
+        <v>273.3426543204424</v>
       </c>
       <c r="O39" t="n">
         <v>439.519840358072</v>
@@ -37798,10 +37798,10 @@
         <v>279.4395847880024</v>
       </c>
       <c r="Q41" t="n">
-        <v>132.1666080783682</v>
+        <v>182.4164882802515</v>
       </c>
       <c r="R41" t="n">
-        <v>50.24988020188331</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>78.07995823595724</v>
       </c>
       <c r="K42" t="n">
-        <v>231.459387953199</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>409.0851269218996</v>
@@ -37871,13 +37871,13 @@
         <v>563.8261570662851</v>
       </c>
       <c r="O42" t="n">
-        <v>439.519840358072</v>
+        <v>410.2718862624266</v>
       </c>
       <c r="P42" t="n">
         <v>339.946230553047</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>182.6273838128872</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37953,10 +37953,10 @@
         <v>121.0529111912406</v>
       </c>
       <c r="P43" t="n">
-        <v>111.7478301763649</v>
+        <v>111.7478301763708</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.3969770898709</v>
+        <v>120.3969770898705</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>285.8910700915693</v>
       </c>
       <c r="L44" t="n">
-        <v>405.1479071098771</v>
+        <v>455.3977873117606</v>
       </c>
       <c r="M44" t="n">
         <v>457.0168864261405</v>
@@ -38038,7 +38038,7 @@
         <v>132.1666080783682</v>
       </c>
       <c r="R44" t="n">
-        <v>50.24988020188147</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,10 +38102,10 @@
         <v>409.0851269218996</v>
       </c>
       <c r="M45" t="n">
-        <v>536.106800241615</v>
+        <v>245.6232974957723</v>
       </c>
       <c r="N45" t="n">
-        <v>273.3426543204405</v>
+        <v>563.8261570662851</v>
       </c>
       <c r="O45" t="n">
         <v>439.519840358072</v>
@@ -38178,16 +38178,16 @@
         <v>51.69381958331815</v>
       </c>
       <c r="L46" t="n">
-        <v>128.6440000728745</v>
+        <v>128.6440000728806</v>
       </c>
       <c r="M46" t="n">
-        <v>288.8899832334689</v>
+        <v>143.1342347413309</v>
       </c>
       <c r="N46" t="n">
         <v>142.9979513167548</v>
       </c>
       <c r="O46" t="n">
-        <v>121.0529111912406</v>
+        <v>266.8086596833782</v>
       </c>
       <c r="P46" t="n">
         <v>82.08251041478675</v>
